--- a/analysis/WorkingSheet.xlsx
+++ b/analysis/WorkingSheet.xlsx
@@ -839,6 +839,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -854,28 +872,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1089,11 +1089,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="245088784"/>
-        <c:axId val="245087608"/>
+        <c:axId val="203498032"/>
+        <c:axId val="203496856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="245088784"/>
+        <c:axId val="203498032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1136,7 +1136,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245087608"/>
+        <c:crossAx val="203496856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1144,7 +1144,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="245087608"/>
+        <c:axId val="203496856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1154,7 +1154,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245088784"/>
+        <c:crossAx val="203498032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1716,11 +1716,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="245252056"/>
-        <c:axId val="245252448"/>
+        <c:axId val="258332056"/>
+        <c:axId val="258333232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="245252056"/>
+        <c:axId val="258332056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-0.2"/>
@@ -1731,12 +1731,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245252448"/>
+        <c:crossAx val="258333232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="245252448"/>
+        <c:axId val="258333232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1760,7 +1760,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245252056"/>
+        <c:crossAx val="258332056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1907,7 +1907,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -2337,11 +2336,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246047120"/>
-        <c:axId val="245249704"/>
+        <c:axId val="258331272"/>
+        <c:axId val="258333624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246047120"/>
+        <c:axId val="258331272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-0.2"/>
@@ -2352,12 +2351,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245249704"/>
+        <c:crossAx val="258333624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="245249704"/>
+        <c:axId val="258333624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2381,7 +2380,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="246047120"/>
+        <c:crossAx val="258331272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2965,11 +2964,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="378194216"/>
-        <c:axId val="378193824"/>
+        <c:axId val="258326568"/>
+        <c:axId val="258329312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="378194216"/>
+        <c:axId val="258326568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-0.2"/>
@@ -2980,12 +2979,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="378193824"/>
+        <c:crossAx val="258329312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="378193824"/>
+        <c:axId val="258329312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3009,7 +3008,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="378194216"/>
+        <c:crossAx val="258326568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3593,11 +3592,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="244392880"/>
-        <c:axId val="244387392"/>
+        <c:axId val="258328136"/>
+        <c:axId val="258328528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="244392880"/>
+        <c:axId val="258328136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-0.2"/>
@@ -3608,12 +3607,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244387392"/>
+        <c:crossAx val="258328528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="244387392"/>
+        <c:axId val="258328528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3637,7 +3636,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244392880"/>
+        <c:crossAx val="258328136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3936,11 +3935,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="245091136"/>
-        <c:axId val="245089568"/>
+        <c:axId val="203497248"/>
+        <c:axId val="203494112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="245091136"/>
+        <c:axId val="203497248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3983,7 +3982,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245089568"/>
+        <c:crossAx val="203494112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3991,7 +3990,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="245089568"/>
+        <c:axId val="203494112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4001,7 +4000,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245091136"/>
+        <c:crossAx val="203497248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4273,11 +4272,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="245092704"/>
-        <c:axId val="245093096"/>
+        <c:axId val="203495680"/>
+        <c:axId val="203494896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="245092704"/>
+        <c:axId val="203495680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4320,7 +4319,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245093096"/>
+        <c:crossAx val="203494896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4328,7 +4327,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="245093096"/>
+        <c:axId val="203494896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4338,7 +4337,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245092704"/>
+        <c:crossAx val="203495680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4615,11 +4614,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="245091920"/>
-        <c:axId val="245093488"/>
+        <c:axId val="203498424"/>
+        <c:axId val="203498816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="245091920"/>
+        <c:axId val="203498424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4662,7 +4661,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245093488"/>
+        <c:crossAx val="203498816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4670,7 +4669,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="245093488"/>
+        <c:axId val="203498816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4680,7 +4679,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245091920"/>
+        <c:crossAx val="203498424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5264,11 +5263,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246053784"/>
-        <c:axId val="246051432"/>
+        <c:axId val="203292752"/>
+        <c:axId val="203289224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246053784"/>
+        <c:axId val="203292752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -5294,13 +5293,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="246051432"/>
+        <c:crossAx val="203289224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246051432"/>
+        <c:axId val="203289224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5324,7 +5323,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="246053784"/>
+        <c:crossAx val="203292752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5411,7 +5410,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nl-NL"/>
-              <a:t>Accuracy</a:t>
+              <a:t>Efficient actions</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5420,8 +5419,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.39783099782254966"/>
-          <c:y val="1.8701084515649273E-2"/>
+          <c:x val="0.30842147905285749"/>
+          <c:y val="1.2467389677099516E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -5853,11 +5852,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246053392"/>
-        <c:axId val="246052608"/>
+        <c:axId val="203456616"/>
+        <c:axId val="203457008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246053392"/>
+        <c:axId val="203456616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-0.2"/>
@@ -5868,12 +5867,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="246052608"/>
+        <c:crossAx val="203457008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246052608"/>
+        <c:axId val="203457008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5897,7 +5896,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="246053392"/>
+        <c:crossAx val="203456616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6477,11 +6476,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246047512"/>
-        <c:axId val="246047904"/>
+        <c:axId val="203453872"/>
+        <c:axId val="203456224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246047512"/>
+        <c:axId val="203453872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-0.2"/>
@@ -6492,12 +6491,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="246047904"/>
+        <c:crossAx val="203456224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246047904"/>
+        <c:axId val="203456224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6521,7 +6520,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="246047512"/>
+        <c:crossAx val="203453872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7098,11 +7097,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246049472"/>
-        <c:axId val="246050256"/>
+        <c:axId val="203454656"/>
+        <c:axId val="203455048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246049472"/>
+        <c:axId val="203454656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-0.2"/>
@@ -7113,12 +7112,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="246050256"/>
+        <c:crossAx val="203455048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246050256"/>
+        <c:axId val="203455048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7142,7 +7141,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="246049472"/>
+        <c:crossAx val="203454656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7726,11 +7725,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="245251272"/>
-        <c:axId val="245254800"/>
+        <c:axId val="258326960"/>
+        <c:axId val="258327352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="245251272"/>
+        <c:axId val="258326960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-0.2"/>
@@ -7741,12 +7740,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245254800"/>
+        <c:crossAx val="258327352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="245254800"/>
+        <c:axId val="258327352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7770,7 +7769,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245251272"/>
+        <c:crossAx val="258326960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17882,13 +17881,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
       <c r="H2" s="54" t="s">
         <v>47</v>
       </c>
@@ -17903,9 +17902,9 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="28" t="s">
         <v>25</v>
       </c>
@@ -17926,13 +17925,13 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickTop="1">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="71"/>
+      <c r="C4" s="76"/>
       <c r="D4" s="30">
         <v>0.99038461538461497</v>
       </c>
@@ -17953,8 +17952,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="24">
-      <c r="A5" s="69"/>
-      <c r="B5" s="72" t="s">
+      <c r="A5" s="68"/>
+      <c r="B5" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="32" t="s">
@@ -17978,8 +17977,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="69"/>
-      <c r="B6" s="72"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="32"/>
       <c r="D6" s="33"/>
       <c r="E6" s="34"/>
@@ -17992,8 +17991,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="69"/>
-      <c r="B7" s="72"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="32"/>
       <c r="D7" s="33"/>
       <c r="E7" s="34"/>
@@ -18011,8 +18010,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="69"/>
-      <c r="B8" s="72"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="32"/>
       <c r="D8" s="33"/>
       <c r="E8" s="34"/>
@@ -18030,8 +18029,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="69"/>
-      <c r="B9" s="72"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="32"/>
       <c r="D9" s="33"/>
       <c r="E9" s="34"/>
@@ -18049,8 +18048,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="24">
-      <c r="A10" s="69"/>
-      <c r="B10" s="72"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="32" t="s">
         <v>29</v>
       </c>
@@ -18060,11 +18059,11 @@
       <c r="E10" s="34"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="69"/>
-      <c r="B11" s="72" t="s">
+      <c r="A11" s="68"/>
+      <c r="B11" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="73"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="33">
         <v>0.99358974358974339</v>
       </c>
@@ -18077,11 +18076,11 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="69"/>
-      <c r="B12" s="72" t="s">
+      <c r="A12" s="68"/>
+      <c r="B12" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="73"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="35">
         <v>1</v>
       </c>
@@ -18097,11 +18096,11 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="69"/>
-      <c r="B13" s="72" t="s">
+      <c r="A13" s="68"/>
+      <c r="B13" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="73"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="36">
         <v>7.3964497041425993E-4</v>
       </c>
@@ -18114,22 +18113,22 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="69"/>
-      <c r="B14" s="72" t="s">
+      <c r="A14" s="68"/>
+      <c r="B14" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="73"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="37">
         <v>2.7196414661022138E-2</v>
       </c>
       <c r="E14" s="34"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="69"/>
-      <c r="B15" s="72" t="s">
+      <c r="A15" s="68"/>
+      <c r="B15" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="73"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="38">
         <v>0.92307692307692002</v>
       </c>
@@ -18142,11 +18141,11 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="69"/>
-      <c r="B16" s="72" t="s">
+      <c r="A16" s="68"/>
+      <c r="B16" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="73"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="39">
         <v>1</v>
       </c>
@@ -18162,11 +18161,11 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="69"/>
-      <c r="B17" s="72" t="s">
+      <c r="A17" s="68"/>
+      <c r="B17" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="73"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="38">
         <v>7.692307692307998E-2</v>
       </c>
@@ -18179,22 +18178,22 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="69"/>
-      <c r="B18" s="72" t="s">
+      <c r="A18" s="68"/>
+      <c r="B18" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="73"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="39">
         <v>0</v>
       </c>
       <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="69"/>
-      <c r="B19" s="72" t="s">
+      <c r="A19" s="68"/>
+      <c r="B19" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="73"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="40">
         <v>-2.8284271247461863</v>
       </c>
@@ -18203,11 +18202,11 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="69"/>
-      <c r="B20" s="72" t="s">
+      <c r="A20" s="68"/>
+      <c r="B20" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="73"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="40">
         <v>7.9999999999999805</v>
       </c>
@@ -18216,13 +18215,13 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="73"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="43">
         <v>8254</v>
       </c>
@@ -18231,8 +18230,8 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="24">
-      <c r="A22" s="69"/>
-      <c r="B22" s="72" t="s">
+      <c r="A22" s="68"/>
+      <c r="B22" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="32" t="s">
@@ -18244,8 +18243,8 @@
       <c r="E22" s="34"/>
     </row>
     <row r="23" spans="1:11" ht="24">
-      <c r="A23" s="69"/>
-      <c r="B23" s="72"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="32" t="s">
         <v>29</v>
       </c>
@@ -18255,99 +18254,99 @@
       <c r="E23" s="34"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="69"/>
-      <c r="B24" s="72" t="s">
+      <c r="A24" s="68"/>
+      <c r="B24" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="73"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="43">
         <v>8250.7037037037044</v>
       </c>
       <c r="E24" s="34"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="69"/>
-      <c r="B25" s="72" t="s">
+      <c r="A25" s="68"/>
+      <c r="B25" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="73"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="43">
         <v>8329.6666666666661</v>
       </c>
       <c r="E25" s="34"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="69"/>
-      <c r="B26" s="72" t="s">
+      <c r="A26" s="68"/>
+      <c r="B26" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="73"/>
+      <c r="C26" s="65"/>
       <c r="D26" s="40">
         <v>2072667.0793650788</v>
       </c>
       <c r="E26" s="34"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="69"/>
-      <c r="B27" s="72" t="s">
+      <c r="A27" s="68"/>
+      <c r="B27" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="73"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="40">
         <v>1439.6760327813611</v>
       </c>
       <c r="E27" s="34"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="69"/>
-      <c r="B28" s="72" t="s">
+      <c r="A28" s="68"/>
+      <c r="B28" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="73"/>
+      <c r="C28" s="65"/>
       <c r="D28" s="44">
         <v>6003.666666666667</v>
       </c>
       <c r="E28" s="34"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="69"/>
-      <c r="B29" s="72" t="s">
+      <c r="A29" s="68"/>
+      <c r="B29" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="65"/>
       <c r="D29" s="44">
         <v>10563.666666666666</v>
       </c>
       <c r="E29" s="34"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="69"/>
-      <c r="B30" s="72" t="s">
+      <c r="A30" s="68"/>
+      <c r="B30" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="73"/>
+      <c r="C30" s="65"/>
       <c r="D30" s="44">
         <v>4559.9999999999991</v>
       </c>
       <c r="E30" s="34"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="69"/>
-      <c r="B31" s="72" t="s">
+      <c r="A31" s="68"/>
+      <c r="B31" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="73"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="44">
         <v>2182.666666666667</v>
       </c>
       <c r="E31" s="34"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="69"/>
-      <c r="B32" s="72" t="s">
+      <c r="A32" s="68"/>
+      <c r="B32" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="73"/>
+      <c r="C32" s="65"/>
       <c r="D32" s="36">
         <v>7.3963925187845114E-2</v>
       </c>
@@ -18356,11 +18355,11 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="69"/>
-      <c r="B33" s="72" t="s">
+      <c r="A33" s="68"/>
+      <c r="B33" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="73"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="36">
         <v>-0.15759740292120381</v>
       </c>
@@ -18369,13 +18368,13 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="69" t="s">
+      <c r="A34" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="73"/>
+      <c r="C34" s="65"/>
       <c r="D34" s="43">
         <v>10368.368721625</v>
       </c>
@@ -18384,8 +18383,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="24">
-      <c r="A35" s="69"/>
-      <c r="B35" s="72" t="s">
+      <c r="A35" s="68"/>
+      <c r="B35" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C35" s="32" t="s">
@@ -18397,8 +18396,8 @@
       <c r="E35" s="34"/>
     </row>
     <row r="36" spans="1:5" ht="24">
-      <c r="A36" s="69"/>
-      <c r="B36" s="72"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="64"/>
       <c r="C36" s="32" t="s">
         <v>29</v>
       </c>
@@ -18408,99 +18407,99 @@
       <c r="E36" s="34"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="69"/>
-      <c r="B37" s="72" t="s">
+      <c r="A37" s="68"/>
+      <c r="B37" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="73"/>
+      <c r="C37" s="65"/>
       <c r="D37" s="43">
         <v>10312.589640638889</v>
       </c>
       <c r="E37" s="34"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="69"/>
-      <c r="B38" s="72" t="s">
+      <c r="A38" s="68"/>
+      <c r="B38" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="73"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="43">
         <v>9726.2692260000003</v>
       </c>
       <c r="E38" s="34"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="69"/>
-      <c r="B39" s="72" t="s">
+      <c r="A39" s="68"/>
+      <c r="B39" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="73"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="40">
         <v>3172722.5257192408</v>
       </c>
       <c r="E39" s="34"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="69"/>
-      <c r="B40" s="72" t="s">
+      <c r="A40" s="68"/>
+      <c r="B40" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="73"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="40">
         <v>1781.2137787809863</v>
       </c>
       <c r="E40" s="34"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="69"/>
-      <c r="B41" s="72" t="s">
+      <c r="A41" s="68"/>
+      <c r="B41" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="73"/>
+      <c r="C41" s="65"/>
       <c r="D41" s="44">
         <v>8651.6228009999995</v>
       </c>
       <c r="E41" s="34"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="69"/>
-      <c r="B42" s="72" t="s">
+      <c r="A42" s="68"/>
+      <c r="B42" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="73"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="44">
         <v>13089.1381</v>
       </c>
       <c r="E42" s="34"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="69"/>
-      <c r="B43" s="72" t="s">
+      <c r="A43" s="68"/>
+      <c r="B43" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="73"/>
+      <c r="C43" s="65"/>
       <c r="D43" s="44">
         <v>4437.5152990000006</v>
       </c>
       <c r="E43" s="34"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="69"/>
-      <c r="B44" s="72" t="s">
+      <c r="A44" s="68"/>
+      <c r="B44" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="73"/>
+      <c r="C44" s="65"/>
       <c r="D44" s="44">
         <v>3506.6378135000014</v>
       </c>
       <c r="E44" s="34"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="69"/>
-      <c r="B45" s="72" t="s">
+      <c r="A45" s="68"/>
+      <c r="B45" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="73"/>
+      <c r="C45" s="65"/>
       <c r="D45" s="36">
         <v>0.77317603412133407</v>
       </c>
@@ -18509,11 +18508,11 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="69"/>
-      <c r="B46" s="72" t="s">
+      <c r="A46" s="68"/>
+      <c r="B46" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="73"/>
+      <c r="C46" s="65"/>
       <c r="D46" s="40">
         <v>-1.115908936115283</v>
       </c>
@@ -18522,13 +18521,13 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="69" t="s">
+      <c r="A47" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="72" t="s">
+      <c r="B47" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="73"/>
+      <c r="C47" s="65"/>
       <c r="D47" s="45">
         <v>0.125</v>
       </c>
@@ -18537,8 +18536,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="24">
-      <c r="A48" s="69"/>
-      <c r="B48" s="72" t="s">
+      <c r="A48" s="68"/>
+      <c r="B48" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C48" s="32" t="s">
@@ -18550,8 +18549,8 @@
       <c r="E48" s="34"/>
     </row>
     <row r="49" spans="1:5" ht="24">
-      <c r="A49" s="69"/>
-      <c r="B49" s="72"/>
+      <c r="A49" s="68"/>
+      <c r="B49" s="64"/>
       <c r="C49" s="32" t="s">
         <v>29</v>
       </c>
@@ -18561,99 +18560,99 @@
       <c r="E49" s="34"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="69"/>
-      <c r="B50" s="72" t="s">
+      <c r="A50" s="68"/>
+      <c r="B50" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="73"/>
+      <c r="C50" s="65"/>
       <c r="D50" s="45">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E50" s="34"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="69"/>
-      <c r="B51" s="72" t="s">
+      <c r="A51" s="68"/>
+      <c r="B51" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="73"/>
+      <c r="C51" s="65"/>
       <c r="D51" s="43">
         <v>0</v>
       </c>
       <c r="E51" s="34"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="69"/>
-      <c r="B52" s="72" t="s">
+      <c r="A52" s="68"/>
+      <c r="B52" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="73"/>
+      <c r="C52" s="65"/>
       <c r="D52" s="36">
         <v>0.125</v>
       </c>
       <c r="E52" s="34"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="69"/>
-      <c r="B53" s="72" t="s">
+      <c r="A53" s="68"/>
+      <c r="B53" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="73"/>
+      <c r="C53" s="65"/>
       <c r="D53" s="36">
         <v>0.35355339059327379</v>
       </c>
       <c r="E53" s="34"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="69"/>
-      <c r="B54" s="72" t="s">
+      <c r="A54" s="68"/>
+      <c r="B54" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="73"/>
+      <c r="C54" s="65"/>
       <c r="D54" s="44">
         <v>0</v>
       </c>
       <c r="E54" s="34"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="69"/>
-      <c r="B55" s="72" t="s">
+      <c r="A55" s="68"/>
+      <c r="B55" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="73"/>
+      <c r="C55" s="65"/>
       <c r="D55" s="44">
         <v>1</v>
       </c>
       <c r="E55" s="34"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="69"/>
-      <c r="B56" s="72" t="s">
+      <c r="A56" s="68"/>
+      <c r="B56" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="73"/>
+      <c r="C56" s="65"/>
       <c r="D56" s="44">
         <v>1</v>
       </c>
       <c r="E56" s="34"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="69"/>
-      <c r="B57" s="72" t="s">
+      <c r="A57" s="68"/>
+      <c r="B57" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="73"/>
+      <c r="C57" s="65"/>
       <c r="D57" s="44">
         <v>0</v>
       </c>
       <c r="E57" s="34"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="69"/>
-      <c r="B58" s="72" t="s">
+      <c r="A58" s="68"/>
+      <c r="B58" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C58" s="73"/>
+      <c r="C58" s="65"/>
       <c r="D58" s="40">
         <v>2.8284271247461898</v>
       </c>
@@ -18662,11 +18661,11 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="69"/>
-      <c r="B59" s="72" t="s">
+      <c r="A59" s="68"/>
+      <c r="B59" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="73"/>
+      <c r="C59" s="65"/>
       <c r="D59" s="40">
         <v>8</v>
       </c>
@@ -18675,13 +18674,13 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="69" t="s">
+      <c r="A60" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="72" t="s">
+      <c r="B60" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="73"/>
+      <c r="C60" s="65"/>
       <c r="D60" s="45">
         <v>0.625</v>
       </c>
@@ -18690,8 +18689,8 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="24">
-      <c r="A61" s="69"/>
-      <c r="B61" s="72" t="s">
+      <c r="A61" s="68"/>
+      <c r="B61" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C61" s="32" t="s">
@@ -18703,8 +18702,8 @@
       <c r="E61" s="34"/>
     </row>
     <row r="62" spans="1:5" ht="24">
-      <c r="A62" s="69"/>
-      <c r="B62" s="72"/>
+      <c r="A62" s="68"/>
+      <c r="B62" s="64"/>
       <c r="C62" s="32" t="s">
         <v>29</v>
       </c>
@@ -18714,99 +18713,99 @@
       <c r="E62" s="34"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="69"/>
-      <c r="B63" s="72" t="s">
+      <c r="A63" s="68"/>
+      <c r="B63" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C63" s="73"/>
+      <c r="C63" s="65"/>
       <c r="D63" s="45">
         <v>0.41666666666666663</v>
       </c>
       <c r="E63" s="34"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="69"/>
-      <c r="B64" s="72" t="s">
+      <c r="A64" s="68"/>
+      <c r="B64" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="73"/>
+      <c r="C64" s="65"/>
       <c r="D64" s="43">
         <v>0</v>
       </c>
       <c r="E64" s="34"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="69"/>
-      <c r="B65" s="72" t="s">
+      <c r="A65" s="68"/>
+      <c r="B65" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="73"/>
+      <c r="C65" s="65"/>
       <c r="D65" s="40">
         <v>3.125</v>
       </c>
       <c r="E65" s="34"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="69"/>
-      <c r="B66" s="72" t="s">
+      <c r="A66" s="68"/>
+      <c r="B66" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="73"/>
+      <c r="C66" s="65"/>
       <c r="D66" s="40">
         <v>1.7677669529663689</v>
       </c>
       <c r="E66" s="34"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="69"/>
-      <c r="B67" s="72" t="s">
+      <c r="A67" s="68"/>
+      <c r="B67" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="73"/>
+      <c r="C67" s="65"/>
       <c r="D67" s="44">
         <v>0</v>
       </c>
       <c r="E67" s="34"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="69"/>
-      <c r="B68" s="72" t="s">
+      <c r="A68" s="68"/>
+      <c r="B68" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C68" s="73"/>
+      <c r="C68" s="65"/>
       <c r="D68" s="44">
         <v>5</v>
       </c>
       <c r="E68" s="34"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="69"/>
-      <c r="B69" s="72" t="s">
+      <c r="A69" s="68"/>
+      <c r="B69" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C69" s="73"/>
+      <c r="C69" s="65"/>
       <c r="D69" s="44">
         <v>5</v>
       </c>
       <c r="E69" s="34"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="69"/>
-      <c r="B70" s="72" t="s">
+      <c r="A70" s="68"/>
+      <c r="B70" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C70" s="73"/>
+      <c r="C70" s="65"/>
       <c r="D70" s="44">
         <v>0</v>
       </c>
       <c r="E70" s="34"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="69"/>
-      <c r="B71" s="72" t="s">
+      <c r="A71" s="68"/>
+      <c r="B71" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C71" s="73"/>
+      <c r="C71" s="65"/>
       <c r="D71" s="40">
         <v>2.8284271247461898</v>
       </c>
@@ -18815,11 +18814,11 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="69"/>
-      <c r="B72" s="72" t="s">
+      <c r="A72" s="68"/>
+      <c r="B72" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C72" s="73"/>
+      <c r="C72" s="65"/>
       <c r="D72" s="40">
         <v>8</v>
       </c>
@@ -18828,13 +18827,13 @@
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="69" t="s">
+      <c r="A73" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="72" t="s">
+      <c r="B73" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C73" s="73"/>
+      <c r="C73" s="65"/>
       <c r="D73" s="43">
         <v>6.75</v>
       </c>
@@ -18843,8 +18842,8 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="24">
-      <c r="A74" s="69"/>
-      <c r="B74" s="72" t="s">
+      <c r="A74" s="68"/>
+      <c r="B74" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C74" s="32" t="s">
@@ -18856,8 +18855,8 @@
       <c r="E74" s="34"/>
     </row>
     <row r="75" spans="1:5" ht="24">
-      <c r="A75" s="69"/>
-      <c r="B75" s="72"/>
+      <c r="A75" s="68"/>
+      <c r="B75" s="64"/>
       <c r="C75" s="32" t="s">
         <v>29</v>
       </c>
@@ -18867,99 +18866,99 @@
       <c r="E75" s="34"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="69"/>
-      <c r="B76" s="72" t="s">
+      <c r="A76" s="68"/>
+      <c r="B76" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C76" s="73"/>
+      <c r="C76" s="65"/>
       <c r="D76" s="43">
         <v>6.7777777777777777</v>
       </c>
       <c r="E76" s="34"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="69"/>
-      <c r="B77" s="72" t="s">
+      <c r="A77" s="68"/>
+      <c r="B77" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C77" s="73"/>
+      <c r="C77" s="65"/>
       <c r="D77" s="43">
         <v>7</v>
       </c>
       <c r="E77" s="34"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="69"/>
-      <c r="B78" s="72" t="s">
+      <c r="A78" s="68"/>
+      <c r="B78" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="73"/>
+      <c r="C78" s="65"/>
       <c r="D78" s="36">
         <v>0.21428571428571427</v>
       </c>
       <c r="E78" s="34"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="69"/>
-      <c r="B79" s="72" t="s">
+      <c r="A79" s="68"/>
+      <c r="B79" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="73"/>
+      <c r="C79" s="65"/>
       <c r="D79" s="36">
         <v>0.46291004988627571</v>
       </c>
       <c r="E79" s="34"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="69"/>
-      <c r="B80" s="72" t="s">
+      <c r="A80" s="68"/>
+      <c r="B80" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C80" s="73"/>
+      <c r="C80" s="65"/>
       <c r="D80" s="44">
         <v>6</v>
       </c>
       <c r="E80" s="34"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="69"/>
-      <c r="B81" s="72" t="s">
+      <c r="A81" s="68"/>
+      <c r="B81" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C81" s="73"/>
+      <c r="C81" s="65"/>
       <c r="D81" s="44">
         <v>7</v>
       </c>
       <c r="E81" s="34"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="69"/>
-      <c r="B82" s="72" t="s">
+      <c r="A82" s="68"/>
+      <c r="B82" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C82" s="73"/>
+      <c r="C82" s="65"/>
       <c r="D82" s="44">
         <v>1</v>
       </c>
       <c r="E82" s="34"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="69"/>
-      <c r="B83" s="72" t="s">
+      <c r="A83" s="68"/>
+      <c r="B83" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C83" s="73"/>
+      <c r="C83" s="65"/>
       <c r="D83" s="46">
         <v>0.75</v>
       </c>
       <c r="E83" s="34"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="69"/>
-      <c r="B84" s="72" t="s">
+      <c r="A84" s="68"/>
+      <c r="B84" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C84" s="73"/>
+      <c r="C84" s="65"/>
       <c r="D84" s="40">
         <v>-1.4401645996461911</v>
       </c>
@@ -18968,11 +18967,11 @@
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="69"/>
-      <c r="B85" s="72" t="s">
+      <c r="A85" s="68"/>
+      <c r="B85" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C85" s="73"/>
+      <c r="C85" s="65"/>
       <c r="D85" s="40">
         <v>0</v>
       </c>
@@ -18981,13 +18980,13 @@
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="69" t="s">
+      <c r="A86" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="72" t="s">
+      <c r="B86" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C86" s="73"/>
+      <c r="C86" s="65"/>
       <c r="D86" s="39">
         <v>6.78125</v>
       </c>
@@ -18996,8 +18995,8 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="24">
-      <c r="A87" s="69"/>
-      <c r="B87" s="72" t="s">
+      <c r="A87" s="68"/>
+      <c r="B87" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C87" s="32" t="s">
@@ -19009,8 +19008,8 @@
       <c r="E87" s="34"/>
     </row>
     <row r="88" spans="1:5" ht="24">
-      <c r="A88" s="69"/>
-      <c r="B88" s="72"/>
+      <c r="A88" s="68"/>
+      <c r="B88" s="64"/>
       <c r="C88" s="32" t="s">
         <v>29</v>
       </c>
@@ -19020,99 +19019,99 @@
       <c r="E88" s="34"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="69"/>
-      <c r="B89" s="72" t="s">
+      <c r="A89" s="68"/>
+      <c r="B89" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C89" s="73"/>
+      <c r="C89" s="65"/>
       <c r="D89" s="39">
         <v>6.8263888888888893</v>
       </c>
       <c r="E89" s="34"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="69"/>
-      <c r="B90" s="72" t="s">
+      <c r="A90" s="68"/>
+      <c r="B90" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C90" s="73"/>
+      <c r="C90" s="65"/>
       <c r="D90" s="39">
         <v>6.9375</v>
       </c>
       <c r="E90" s="34"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="69"/>
-      <c r="B91" s="72" t="s">
+      <c r="A91" s="68"/>
+      <c r="B91" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C91" s="73"/>
+      <c r="C91" s="65"/>
       <c r="D91" s="36">
         <v>0.18191964285714285</v>
       </c>
       <c r="E91" s="34"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="69"/>
-      <c r="B92" s="72" t="s">
+      <c r="A92" s="68"/>
+      <c r="B92" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C92" s="73"/>
+      <c r="C92" s="65"/>
       <c r="D92" s="48">
         <v>0.42652038973200668</v>
       </c>
       <c r="E92" s="34"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="69"/>
-      <c r="B93" s="72" t="s">
+      <c r="A93" s="68"/>
+      <c r="B93" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C93" s="73"/>
+      <c r="C93" s="65"/>
       <c r="D93" s="43">
         <v>5.75</v>
       </c>
       <c r="E93" s="34"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="69"/>
-      <c r="B94" s="72" t="s">
+      <c r="A94" s="68"/>
+      <c r="B94" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C94" s="73"/>
+      <c r="C94" s="65"/>
       <c r="D94" s="43">
         <v>7</v>
       </c>
       <c r="E94" s="34"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="69"/>
-      <c r="B95" s="72" t="s">
+      <c r="A95" s="68"/>
+      <c r="B95" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C95" s="73"/>
+      <c r="C95" s="65"/>
       <c r="D95" s="43">
         <v>1.25</v>
       </c>
       <c r="E95" s="34"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="69"/>
-      <c r="B96" s="72" t="s">
+      <c r="A96" s="68"/>
+      <c r="B96" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C96" s="73"/>
+      <c r="C96" s="65"/>
       <c r="D96" s="45">
         <v>0.21875</v>
       </c>
       <c r="E96" s="34"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="69"/>
-      <c r="B97" s="72" t="s">
+      <c r="A97" s="68"/>
+      <c r="B97" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C97" s="73"/>
+      <c r="C97" s="65"/>
       <c r="D97" s="40">
         <v>-2.5854818731859712</v>
       </c>
@@ -19121,11 +19120,11 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="69"/>
-      <c r="B98" s="72" t="s">
+      <c r="A98" s="68"/>
+      <c r="B98" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C98" s="73"/>
+      <c r="C98" s="65"/>
       <c r="D98" s="40">
         <v>6.9133200346268211</v>
       </c>
@@ -19134,13 +19133,13 @@
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="69" t="s">
+      <c r="A99" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B99" s="72" t="s">
+      <c r="B99" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C99" s="73"/>
+      <c r="C99" s="65"/>
       <c r="D99" s="39">
         <v>6.083333333333333</v>
       </c>
@@ -19149,8 +19148,8 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="24">
-      <c r="A100" s="69"/>
-      <c r="B100" s="72" t="s">
+      <c r="A100" s="68"/>
+      <c r="B100" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C100" s="32" t="s">
@@ -19162,8 +19161,8 @@
       <c r="E100" s="34"/>
     </row>
     <row r="101" spans="1:5" ht="24">
-      <c r="A101" s="69"/>
-      <c r="B101" s="72"/>
+      <c r="A101" s="68"/>
+      <c r="B101" s="64"/>
       <c r="C101" s="32" t="s">
         <v>29</v>
       </c>
@@ -19173,99 +19172,99 @@
       <c r="E101" s="34"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="69"/>
-      <c r="B102" s="72" t="s">
+      <c r="A102" s="68"/>
+      <c r="B102" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C102" s="73"/>
+      <c r="C102" s="65"/>
       <c r="D102" s="39">
         <v>6.0925925925925926</v>
       </c>
       <c r="E102" s="34"/>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="69"/>
-      <c r="B103" s="72" t="s">
+      <c r="A103" s="68"/>
+      <c r="B103" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C103" s="73"/>
+      <c r="C103" s="65"/>
       <c r="D103" s="39">
         <v>6.1666666666666661</v>
       </c>
       <c r="E103" s="34"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="69"/>
-      <c r="B104" s="72" t="s">
+      <c r="A104" s="68"/>
+      <c r="B104" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C104" s="73"/>
+      <c r="C104" s="65"/>
       <c r="D104" s="36">
         <v>0.40476190476190471</v>
       </c>
       <c r="E104" s="34"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="69"/>
-      <c r="B105" s="72" t="s">
+      <c r="A105" s="68"/>
+      <c r="B105" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C105" s="73"/>
+      <c r="C105" s="65"/>
       <c r="D105" s="48">
         <v>0.63620901028035171</v>
       </c>
       <c r="E105" s="34"/>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="69"/>
-      <c r="B106" s="72" t="s">
+      <c r="A106" s="68"/>
+      <c r="B106" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C106" s="73"/>
+      <c r="C106" s="65"/>
       <c r="D106" s="43">
         <v>5</v>
       </c>
       <c r="E106" s="34"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="69"/>
-      <c r="B107" s="72" t="s">
+      <c r="A107" s="68"/>
+      <c r="B107" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C107" s="73"/>
+      <c r="C107" s="65"/>
       <c r="D107" s="43">
         <v>7</v>
       </c>
       <c r="E107" s="34"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="69"/>
-      <c r="B108" s="72" t="s">
+      <c r="A108" s="68"/>
+      <c r="B108" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C108" s="73"/>
+      <c r="C108" s="65"/>
       <c r="D108" s="43">
         <v>2</v>
       </c>
       <c r="E108" s="34"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="69"/>
-      <c r="B109" s="72" t="s">
+      <c r="A109" s="68"/>
+      <c r="B109" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C109" s="73"/>
+      <c r="C109" s="65"/>
       <c r="D109" s="45">
         <v>0.91666666666666696</v>
       </c>
       <c r="E109" s="34"/>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="69"/>
-      <c r="B110" s="72" t="s">
+      <c r="A110" s="68"/>
+      <c r="B110" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C110" s="73"/>
+      <c r="C110" s="65"/>
       <c r="D110" s="36">
         <v>-0.30819813646798849</v>
       </c>
@@ -19274,11 +19273,11 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="69"/>
-      <c r="B111" s="72" t="s">
+      <c r="A111" s="68"/>
+      <c r="B111" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C111" s="73"/>
+      <c r="C111" s="65"/>
       <c r="D111" s="36">
         <v>-0.15501730103806211</v>
       </c>
@@ -19287,13 +19286,13 @@
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="69" t="s">
+      <c r="A112" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B112" s="72" t="s">
+      <c r="B112" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C112" s="73"/>
+      <c r="C112" s="65"/>
       <c r="D112" s="33">
         <v>0.26152984303037502</v>
       </c>
@@ -19302,8 +19301,8 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="24">
-      <c r="A113" s="69"/>
-      <c r="B113" s="72" t="s">
+      <c r="A113" s="68"/>
+      <c r="B113" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C113" s="32" t="s">
@@ -19315,8 +19314,8 @@
       <c r="E113" s="34"/>
     </row>
     <row r="114" spans="1:5" ht="24">
-      <c r="A114" s="69"/>
-      <c r="B114" s="72"/>
+      <c r="A114" s="68"/>
+      <c r="B114" s="64"/>
       <c r="C114" s="32" t="s">
         <v>29</v>
       </c>
@@ -19326,99 +19325,99 @@
       <c r="E114" s="34"/>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="69"/>
-      <c r="B115" s="72" t="s">
+      <c r="A115" s="68"/>
+      <c r="B115" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C115" s="73"/>
+      <c r="C115" s="65"/>
       <c r="D115" s="33">
         <v>0.25903652245128611</v>
       </c>
       <c r="E115" s="34"/>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="69"/>
-      <c r="B116" s="72" t="s">
+      <c r="A116" s="68"/>
+      <c r="B116" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C116" s="73"/>
+      <c r="C116" s="65"/>
       <c r="D116" s="33">
         <v>0.26148638009761999</v>
       </c>
       <c r="E116" s="34"/>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="69"/>
-      <c r="B117" s="72" t="s">
+      <c r="A117" s="68"/>
+      <c r="B117" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C117" s="73"/>
+      <c r="C117" s="65"/>
       <c r="D117" s="36">
         <v>1.2528168700988607E-2</v>
       </c>
       <c r="E117" s="34"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="69"/>
-      <c r="B118" s="72" t="s">
+      <c r="A118" s="68"/>
+      <c r="B118" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C118" s="73"/>
+      <c r="C118" s="65"/>
       <c r="D118" s="37">
         <v>0.1119293022447143</v>
       </c>
       <c r="E118" s="34"/>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="69"/>
-      <c r="B119" s="72" t="s">
+      <c r="A119" s="68"/>
+      <c r="B119" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C119" s="73"/>
+      <c r="C119" s="65"/>
       <c r="D119" s="38">
         <v>0.11695906432748999</v>
       </c>
       <c r="E119" s="34"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="69"/>
-      <c r="B120" s="72" t="s">
+      <c r="A120" s="68"/>
+      <c r="B120" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C120" s="73"/>
+      <c r="C120" s="65"/>
       <c r="D120" s="38">
         <v>0.45098039215685998</v>
       </c>
       <c r="E120" s="34"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="69"/>
-      <c r="B121" s="72" t="s">
+      <c r="A121" s="68"/>
+      <c r="B121" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C121" s="73"/>
+      <c r="C121" s="65"/>
       <c r="D121" s="38">
         <v>0.33402132782937</v>
       </c>
       <c r="E121" s="34"/>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="69"/>
-      <c r="B122" s="72" t="s">
+      <c r="A122" s="68"/>
+      <c r="B122" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C122" s="73"/>
+      <c r="C122" s="65"/>
       <c r="D122" s="38">
         <v>0.1874317243507625</v>
       </c>
       <c r="E122" s="34"/>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="69"/>
-      <c r="B123" s="72" t="s">
+      <c r="A123" s="68"/>
+      <c r="B123" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C123" s="73"/>
+      <c r="C123" s="65"/>
       <c r="D123" s="36">
         <v>0.39710159287255919</v>
       </c>
@@ -19427,11 +19426,11 @@
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="69"/>
-      <c r="B124" s="72" t="s">
+      <c r="A124" s="68"/>
+      <c r="B124" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C124" s="73"/>
+      <c r="C124" s="65"/>
       <c r="D124" s="36">
         <v>-0.49823644456566002</v>
       </c>
@@ -19440,13 +19439,13 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="69" t="s">
+      <c r="A125" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B125" s="72" t="s">
+      <c r="B125" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C125" s="73"/>
+      <c r="C125" s="65"/>
       <c r="D125" s="43">
         <v>161429.79166666666</v>
       </c>
@@ -19455,8 +19454,8 @@
       </c>
     </row>
     <row r="126" spans="1:5" ht="24">
-      <c r="A126" s="69"/>
-      <c r="B126" s="72" t="s">
+      <c r="A126" s="68"/>
+      <c r="B126" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C126" s="32" t="s">
@@ -19468,8 +19467,8 @@
       <c r="E126" s="34"/>
     </row>
     <row r="127" spans="1:5" ht="24">
-      <c r="A127" s="69"/>
-      <c r="B127" s="72"/>
+      <c r="A127" s="68"/>
+      <c r="B127" s="64"/>
       <c r="C127" s="32" t="s">
         <v>29</v>
       </c>
@@ -19479,99 +19478,99 @@
       <c r="E127" s="34"/>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="69"/>
-      <c r="B128" s="72" t="s">
+      <c r="A128" s="68"/>
+      <c r="B128" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C128" s="73"/>
+      <c r="C128" s="65"/>
       <c r="D128" s="43">
         <v>160315.86111111112</v>
       </c>
       <c r="E128" s="34"/>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="69"/>
-      <c r="B129" s="72" t="s">
+      <c r="A129" s="68"/>
+      <c r="B129" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C129" s="73"/>
+      <c r="C129" s="65"/>
       <c r="D129" s="43">
         <v>111853.16666666666</v>
       </c>
       <c r="E129" s="34"/>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="69"/>
-      <c r="B130" s="72" t="s">
+      <c r="A130" s="68"/>
+      <c r="B130" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C130" s="73"/>
+      <c r="C130" s="65"/>
       <c r="D130" s="40">
         <v>10744594747.617064</v>
       </c>
       <c r="E130" s="34"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="69"/>
-      <c r="B131" s="72" t="s">
+      <c r="A131" s="68"/>
+      <c r="B131" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C131" s="73"/>
+      <c r="C131" s="65"/>
       <c r="D131" s="40">
         <v>103656.13704753357</v>
       </c>
       <c r="E131" s="34"/>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="69"/>
-      <c r="B132" s="72" t="s">
+      <c r="A132" s="68"/>
+      <c r="B132" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C132" s="73"/>
+      <c r="C132" s="65"/>
       <c r="D132" s="44">
         <v>42968</v>
       </c>
       <c r="E132" s="34"/>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="69"/>
-      <c r="B133" s="72" t="s">
+      <c r="A133" s="68"/>
+      <c r="B133" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C133" s="73"/>
+      <c r="C133" s="65"/>
       <c r="D133" s="44">
         <v>299942.33333333331</v>
       </c>
       <c r="E133" s="34"/>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="69"/>
-      <c r="B134" s="72" t="s">
+      <c r="A134" s="68"/>
+      <c r="B134" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C134" s="73"/>
+      <c r="C134" s="65"/>
       <c r="D134" s="44">
         <v>256974.33333333331</v>
       </c>
       <c r="E134" s="34"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="69"/>
-      <c r="B135" s="72" t="s">
+      <c r="A135" s="68"/>
+      <c r="B135" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C135" s="73"/>
+      <c r="C135" s="65"/>
       <c r="D135" s="44">
         <v>193758.25</v>
       </c>
       <c r="E135" s="34"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="69"/>
-      <c r="B136" s="72" t="s">
+      <c r="A136" s="68"/>
+      <c r="B136" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C136" s="73"/>
+      <c r="C136" s="65"/>
       <c r="D136" s="36">
         <v>0.47123857369785199</v>
       </c>
@@ -19580,11 +19579,11 @@
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="69"/>
-      <c r="B137" s="72" t="s">
+      <c r="A137" s="68"/>
+      <c r="B137" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C137" s="73"/>
+      <c r="C137" s="65"/>
       <c r="D137" s="40">
         <v>-1.9923810811726388</v>
       </c>
@@ -19593,13 +19592,13 @@
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="69" t="s">
+      <c r="A138" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B138" s="72" t="s">
+      <c r="B138" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C138" s="73"/>
+      <c r="C138" s="65"/>
       <c r="D138" s="43">
         <v>795691.10109124996</v>
       </c>
@@ -19608,8 +19607,8 @@
       </c>
     </row>
     <row r="139" spans="1:5" ht="24">
-      <c r="A139" s="69"/>
-      <c r="B139" s="72" t="s">
+      <c r="A139" s="68"/>
+      <c r="B139" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C139" s="32" t="s">
@@ -19621,8 +19620,8 @@
       <c r="E139" s="34"/>
     </row>
     <row r="140" spans="1:5" ht="24">
-      <c r="A140" s="69"/>
-      <c r="B140" s="72"/>
+      <c r="A140" s="68"/>
+      <c r="B140" s="64"/>
       <c r="C140" s="32" t="s">
         <v>29</v>
       </c>
@@ -19632,99 +19631,99 @@
       <c r="E140" s="34"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="69"/>
-      <c r="B141" s="72" t="s">
+      <c r="A141" s="68"/>
+      <c r="B141" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C141" s="73"/>
+      <c r="C141" s="65"/>
       <c r="D141" s="43">
         <v>712808.46318083338</v>
       </c>
       <c r="E141" s="34"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="69"/>
-      <c r="B142" s="72" t="s">
+      <c r="A142" s="68"/>
+      <c r="B142" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C142" s="73"/>
+      <c r="C142" s="65"/>
       <c r="D142" s="43">
         <v>327118.87935</v>
       </c>
       <c r="E142" s="34"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="69"/>
-      <c r="B143" s="72" t="s">
+      <c r="A143" s="68"/>
+      <c r="B143" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C143" s="73"/>
+      <c r="C143" s="65"/>
       <c r="D143" s="40">
         <v>1056397206287.0033</v>
       </c>
       <c r="E143" s="34"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="69"/>
-      <c r="B144" s="72" t="s">
+      <c r="A144" s="68"/>
+      <c r="B144" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C144" s="73"/>
+      <c r="C144" s="65"/>
       <c r="D144" s="40">
         <v>1027811.8535447055</v>
       </c>
       <c r="E144" s="34"/>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="69"/>
-      <c r="B145" s="72" t="s">
+      <c r="A145" s="68"/>
+      <c r="B145" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C145" s="73"/>
+      <c r="C145" s="65"/>
       <c r="D145" s="44">
         <v>29405.328570000001</v>
       </c>
       <c r="E145" s="34"/>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="69"/>
-      <c r="B146" s="72" t="s">
+      <c r="A146" s="68"/>
+      <c r="B146" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C146" s="73"/>
+      <c r="C146" s="65"/>
       <c r="D146" s="44">
         <v>3053864.3560000001</v>
       </c>
       <c r="E146" s="34"/>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="69"/>
-      <c r="B147" s="72" t="s">
+      <c r="A147" s="68"/>
+      <c r="B147" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C147" s="73"/>
+      <c r="C147" s="65"/>
       <c r="D147" s="44">
         <v>3024459.0274300002</v>
       </c>
       <c r="E147" s="34"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="69"/>
-      <c r="B148" s="72" t="s">
+      <c r="A148" s="68"/>
+      <c r="B148" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C148" s="73"/>
+      <c r="C148" s="65"/>
       <c r="D148" s="44">
         <v>1201807.4641049998</v>
       </c>
       <c r="E148" s="34"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="69"/>
-      <c r="B149" s="72" t="s">
+      <c r="A149" s="68"/>
+      <c r="B149" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C149" s="73"/>
+      <c r="C149" s="65"/>
       <c r="D149" s="40">
         <v>1.8441207874855303</v>
       </c>
@@ -19733,11 +19732,11 @@
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="69"/>
-      <c r="B150" s="72" t="s">
+      <c r="A150" s="68"/>
+      <c r="B150" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C150" s="73"/>
+      <c r="C150" s="65"/>
       <c r="D150" s="40">
         <v>3.3992309744700626</v>
       </c>
@@ -19746,13 +19745,13 @@
       </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="69" t="s">
+      <c r="A151" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B151" s="72" t="s">
+      <c r="B151" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C151" s="73"/>
+      <c r="C151" s="65"/>
       <c r="D151" s="43">
         <v>20.75</v>
       </c>
@@ -19761,8 +19760,8 @@
       </c>
     </row>
     <row r="152" spans="1:5" ht="24">
-      <c r="A152" s="69"/>
-      <c r="B152" s="72" t="s">
+      <c r="A152" s="68"/>
+      <c r="B152" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C152" s="32" t="s">
@@ -19774,8 +19773,8 @@
       <c r="E152" s="34"/>
     </row>
     <row r="153" spans="1:5" ht="24">
-      <c r="A153" s="69"/>
-      <c r="B153" s="72"/>
+      <c r="A153" s="68"/>
+      <c r="B153" s="64"/>
       <c r="C153" s="32" t="s">
         <v>29</v>
       </c>
@@ -19785,99 +19784,99 @@
       <c r="E153" s="34"/>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="69"/>
-      <c r="B154" s="72" t="s">
+      <c r="A154" s="68"/>
+      <c r="B154" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C154" s="73"/>
+      <c r="C154" s="65"/>
       <c r="D154" s="43">
         <v>19.444444444444443</v>
       </c>
       <c r="E154" s="34"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="69"/>
-      <c r="B155" s="72" t="s">
+      <c r="A155" s="68"/>
+      <c r="B155" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C155" s="73"/>
+      <c r="C155" s="65"/>
       <c r="D155" s="43">
         <v>16.5</v>
       </c>
       <c r="E155" s="34"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="69"/>
-      <c r="B156" s="72" t="s">
+      <c r="A156" s="68"/>
+      <c r="B156" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C156" s="73"/>
+      <c r="C156" s="65"/>
       <c r="D156" s="40">
         <v>252.21428571428572</v>
       </c>
       <c r="E156" s="34"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="69"/>
-      <c r="B157" s="72" t="s">
+      <c r="A157" s="68"/>
+      <c r="B157" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C157" s="73"/>
+      <c r="C157" s="65"/>
       <c r="D157" s="40">
         <v>15.881255797772596</v>
       </c>
       <c r="E157" s="34"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="69"/>
-      <c r="B158" s="72" t="s">
+      <c r="A158" s="68"/>
+      <c r="B158" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C158" s="73"/>
+      <c r="C158" s="65"/>
       <c r="D158" s="44">
         <v>7</v>
       </c>
       <c r="E158" s="34"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="69"/>
-      <c r="B159" s="72" t="s">
+      <c r="A159" s="68"/>
+      <c r="B159" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C159" s="73"/>
+      <c r="C159" s="65"/>
       <c r="D159" s="44">
         <v>58</v>
       </c>
       <c r="E159" s="34"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="69"/>
-      <c r="B160" s="72" t="s">
+      <c r="A160" s="68"/>
+      <c r="B160" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C160" s="73"/>
+      <c r="C160" s="65"/>
       <c r="D160" s="44">
         <v>51</v>
       </c>
       <c r="E160" s="34"/>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="69"/>
-      <c r="B161" s="72" t="s">
+      <c r="A161" s="68"/>
+      <c r="B161" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C161" s="73"/>
+      <c r="C161" s="65"/>
       <c r="D161" s="44">
         <v>10</v>
       </c>
       <c r="E161" s="34"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="69"/>
-      <c r="B162" s="72" t="s">
+      <c r="A162" s="68"/>
+      <c r="B162" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C162" s="73"/>
+      <c r="C162" s="65"/>
       <c r="D162" s="40">
         <v>2.2835503430746704</v>
       </c>
@@ -19886,11 +19885,11 @@
       </c>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="69"/>
-      <c r="B163" s="72" t="s">
+      <c r="A163" s="68"/>
+      <c r="B163" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C163" s="73"/>
+      <c r="C163" s="65"/>
       <c r="D163" s="40">
         <v>5.7153487727464016</v>
       </c>
@@ -19899,13 +19898,13 @@
       </c>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="69" t="s">
+      <c r="A164" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B164" s="72" t="s">
+      <c r="B164" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C164" s="73"/>
+      <c r="C164" s="65"/>
       <c r="D164" s="43">
         <v>37.5</v>
       </c>
@@ -19914,8 +19913,8 @@
       </c>
     </row>
     <row r="165" spans="1:5" ht="24">
-      <c r="A165" s="69"/>
-      <c r="B165" s="72" t="s">
+      <c r="A165" s="68"/>
+      <c r="B165" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C165" s="32" t="s">
@@ -19927,8 +19926,8 @@
       <c r="E165" s="34"/>
     </row>
     <row r="166" spans="1:5" ht="24">
-      <c r="A166" s="69"/>
-      <c r="B166" s="72"/>
+      <c r="A166" s="68"/>
+      <c r="B166" s="64"/>
       <c r="C166" s="32" t="s">
         <v>29</v>
       </c>
@@ -19938,99 +19937,99 @@
       <c r="E166" s="34"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="69"/>
-      <c r="B167" s="72" t="s">
+      <c r="A167" s="68"/>
+      <c r="B167" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C167" s="73"/>
+      <c r="C167" s="65"/>
       <c r="D167" s="43">
         <v>33.722222222222221</v>
       </c>
       <c r="E167" s="34"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="69"/>
-      <c r="B168" s="72" t="s">
+      <c r="A168" s="68"/>
+      <c r="B168" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C168" s="73"/>
+      <c r="C168" s="65"/>
       <c r="D168" s="43">
         <v>27.5</v>
       </c>
       <c r="E168" s="34"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="69"/>
-      <c r="B169" s="72" t="s">
+      <c r="A169" s="68"/>
+      <c r="B169" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C169" s="73"/>
+      <c r="C169" s="65"/>
       <c r="D169" s="40">
         <v>2083.1428571428573</v>
       </c>
       <c r="E169" s="34"/>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="69"/>
-      <c r="B170" s="72" t="s">
+      <c r="A170" s="68"/>
+      <c r="B170" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C170" s="73"/>
+      <c r="C170" s="65"/>
       <c r="D170" s="40">
         <v>45.641459848944983</v>
       </c>
       <c r="E170" s="34"/>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="69"/>
-      <c r="B171" s="72" t="s">
+      <c r="A171" s="68"/>
+      <c r="B171" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C171" s="73"/>
+      <c r="C171" s="65"/>
       <c r="D171" s="44">
         <v>0</v>
       </c>
       <c r="E171" s="34"/>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="69"/>
-      <c r="B172" s="72" t="s">
+      <c r="A172" s="68"/>
+      <c r="B172" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C172" s="73"/>
+      <c r="C172" s="65"/>
       <c r="D172" s="44">
         <v>143</v>
       </c>
       <c r="E172" s="34"/>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="69"/>
-      <c r="B173" s="72" t="s">
+      <c r="A173" s="68"/>
+      <c r="B173" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C173" s="73"/>
+      <c r="C173" s="65"/>
       <c r="D173" s="44">
         <v>143</v>
       </c>
       <c r="E173" s="34"/>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="69"/>
-      <c r="B174" s="72" t="s">
+      <c r="A174" s="68"/>
+      <c r="B174" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C174" s="73"/>
+      <c r="C174" s="65"/>
       <c r="D174" s="44">
         <v>38</v>
       </c>
       <c r="E174" s="34"/>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="69"/>
-      <c r="B175" s="72" t="s">
+      <c r="A175" s="68"/>
+      <c r="B175" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C175" s="73"/>
+      <c r="C175" s="65"/>
       <c r="D175" s="40">
         <v>2.1427771840157699</v>
       </c>
@@ -20039,11 +20038,11 @@
       </c>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="69"/>
-      <c r="B176" s="72" t="s">
+      <c r="A176" s="68"/>
+      <c r="B176" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C176" s="73"/>
+      <c r="C176" s="65"/>
       <c r="D176" s="40">
         <v>5.1653170250781804</v>
       </c>
@@ -20052,13 +20051,13 @@
       </c>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="69" t="s">
+      <c r="A177" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B177" s="72" t="s">
+      <c r="B177" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C177" s="73"/>
+      <c r="C177" s="65"/>
       <c r="D177" s="43">
         <v>3.125</v>
       </c>
@@ -20067,8 +20066,8 @@
       </c>
     </row>
     <row r="178" spans="1:5" ht="24">
-      <c r="A178" s="69"/>
-      <c r="B178" s="72" t="s">
+      <c r="A178" s="68"/>
+      <c r="B178" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C178" s="32" t="s">
@@ -20080,8 +20079,8 @@
       <c r="E178" s="34"/>
     </row>
     <row r="179" spans="1:5" ht="24">
-      <c r="A179" s="69"/>
-      <c r="B179" s="72"/>
+      <c r="A179" s="68"/>
+      <c r="B179" s="64"/>
       <c r="C179" s="32" t="s">
         <v>29</v>
       </c>
@@ -20091,99 +20090,99 @@
       <c r="E179" s="34"/>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="69"/>
-      <c r="B180" s="72" t="s">
+      <c r="A180" s="68"/>
+      <c r="B180" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C180" s="73"/>
+      <c r="C180" s="65"/>
       <c r="D180" s="43">
         <v>3.0833333333333335</v>
       </c>
       <c r="E180" s="34"/>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="69"/>
-      <c r="B181" s="72" t="s">
+      <c r="A181" s="68"/>
+      <c r="B181" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C181" s="73"/>
+      <c r="C181" s="65"/>
       <c r="D181" s="43">
         <v>2.5</v>
       </c>
       <c r="E181" s="34"/>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="69"/>
-      <c r="B182" s="72" t="s">
+      <c r="A182" s="68"/>
+      <c r="B182" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C182" s="73"/>
+      <c r="C182" s="65"/>
       <c r="D182" s="40">
         <v>2.9821428571428572</v>
       </c>
       <c r="E182" s="34"/>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="69"/>
-      <c r="B183" s="72" t="s">
+      <c r="A183" s="68"/>
+      <c r="B183" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C183" s="73"/>
+      <c r="C183" s="65"/>
       <c r="D183" s="40">
         <v>1.7268882005337975</v>
       </c>
       <c r="E183" s="34"/>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="69"/>
-      <c r="B184" s="72" t="s">
+      <c r="A184" s="68"/>
+      <c r="B184" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C184" s="73"/>
+      <c r="C184" s="65"/>
       <c r="D184" s="44">
         <v>1</v>
       </c>
       <c r="E184" s="34"/>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="69"/>
-      <c r="B185" s="72" t="s">
+      <c r="A185" s="68"/>
+      <c r="B185" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C185" s="73"/>
+      <c r="C185" s="65"/>
       <c r="D185" s="44">
         <v>6</v>
       </c>
       <c r="E185" s="34"/>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="69"/>
-      <c r="B186" s="72" t="s">
+      <c r="A186" s="68"/>
+      <c r="B186" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C186" s="73"/>
+      <c r="C186" s="65"/>
       <c r="D186" s="44">
         <v>5</v>
       </c>
       <c r="E186" s="34"/>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="69"/>
-      <c r="B187" s="72" t="s">
+      <c r="A187" s="68"/>
+      <c r="B187" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C187" s="73"/>
+      <c r="C187" s="65"/>
       <c r="D187" s="44">
         <v>2.75</v>
       </c>
       <c r="E187" s="34"/>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="69"/>
-      <c r="B188" s="72" t="s">
+      <c r="A188" s="68"/>
+      <c r="B188" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C188" s="73"/>
+      <c r="C188" s="65"/>
       <c r="D188" s="36">
         <v>0.63455664523899591</v>
       </c>
@@ -20192,11 +20191,11 @@
       </c>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189" s="69"/>
-      <c r="B189" s="72" t="s">
+      <c r="A189" s="68"/>
+      <c r="B189" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C189" s="73"/>
+      <c r="C189" s="65"/>
       <c r="D189" s="36">
         <v>-0.79555380257449171</v>
       </c>
@@ -20205,13 +20204,13 @@
       </c>
     </row>
     <row r="190" spans="1:5">
-      <c r="A190" s="69" t="s">
+      <c r="A190" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B190" s="72" t="s">
+      <c r="B190" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C190" s="73"/>
+      <c r="C190" s="65"/>
       <c r="D190" s="39">
         <v>3.046875</v>
       </c>
@@ -20220,8 +20219,8 @@
       </c>
     </row>
     <row r="191" spans="1:5" ht="24">
-      <c r="A191" s="69"/>
-      <c r="B191" s="72" t="s">
+      <c r="A191" s="68"/>
+      <c r="B191" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C191" s="32" t="s">
@@ -20233,8 +20232,8 @@
       <c r="E191" s="34"/>
     </row>
     <row r="192" spans="1:5" ht="24">
-      <c r="A192" s="69"/>
-      <c r="B192" s="72"/>
+      <c r="A192" s="68"/>
+      <c r="B192" s="64"/>
       <c r="C192" s="32" t="s">
         <v>29</v>
       </c>
@@ -20244,99 +20243,99 @@
       <c r="E192" s="34"/>
     </row>
     <row r="193" spans="1:5">
-      <c r="A193" s="69"/>
-      <c r="B193" s="72" t="s">
+      <c r="A193" s="68"/>
+      <c r="B193" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C193" s="73"/>
+      <c r="C193" s="65"/>
       <c r="D193" s="39">
         <v>3.0243055555555554</v>
       </c>
       <c r="E193" s="34"/>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194" s="69"/>
-      <c r="B194" s="72" t="s">
+      <c r="A194" s="68"/>
+      <c r="B194" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C194" s="73"/>
+      <c r="C194" s="65"/>
       <c r="D194" s="39">
         <v>2.75</v>
       </c>
       <c r="E194" s="34"/>
     </row>
     <row r="195" spans="1:5">
-      <c r="A195" s="69"/>
-      <c r="B195" s="72" t="s">
+      <c r="A195" s="68"/>
+      <c r="B195" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C195" s="73"/>
+      <c r="C195" s="65"/>
       <c r="D195" s="40">
         <v>1.7943638392857142</v>
       </c>
       <c r="E195" s="34"/>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196" s="69"/>
-      <c r="B196" s="72" t="s">
+      <c r="A196" s="68"/>
+      <c r="B196" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C196" s="73"/>
+      <c r="C196" s="65"/>
       <c r="D196" s="50">
         <v>1.3395386665885065</v>
       </c>
       <c r="E196" s="34"/>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197" s="69"/>
-      <c r="B197" s="72" t="s">
+      <c r="A197" s="68"/>
+      <c r="B197" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C197" s="73"/>
+      <c r="C197" s="65"/>
       <c r="D197" s="43">
         <v>1.125</v>
       </c>
       <c r="E197" s="34"/>
     </row>
     <row r="198" spans="1:5">
-      <c r="A198" s="69"/>
-      <c r="B198" s="72" t="s">
+      <c r="A198" s="68"/>
+      <c r="B198" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C198" s="73"/>
+      <c r="C198" s="65"/>
       <c r="D198" s="43">
         <v>5.375</v>
       </c>
       <c r="E198" s="34"/>
     </row>
     <row r="199" spans="1:5">
-      <c r="A199" s="69"/>
-      <c r="B199" s="72" t="s">
+      <c r="A199" s="68"/>
+      <c r="B199" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C199" s="73"/>
+      <c r="C199" s="65"/>
       <c r="D199" s="43">
         <v>4.25</v>
       </c>
       <c r="E199" s="34"/>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200" s="69"/>
-      <c r="B200" s="72" t="s">
+      <c r="A200" s="68"/>
+      <c r="B200" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C200" s="73"/>
+      <c r="C200" s="65"/>
       <c r="D200" s="43">
         <v>1.90625</v>
       </c>
       <c r="E200" s="34"/>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201" s="69"/>
-      <c r="B201" s="72" t="s">
+      <c r="A201" s="68"/>
+      <c r="B201" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C201" s="73"/>
+      <c r="C201" s="65"/>
       <c r="D201" s="36">
         <v>0.61078185759461412</v>
       </c>
@@ -20345,11 +20344,11 @@
       </c>
     </row>
     <row r="202" spans="1:5">
-      <c r="A202" s="69"/>
-      <c r="B202" s="72" t="s">
+      <c r="A202" s="68"/>
+      <c r="B202" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C202" s="73"/>
+      <c r="C202" s="65"/>
       <c r="D202" s="36">
         <v>0.22419925488712988</v>
       </c>
@@ -20358,13 +20357,13 @@
       </c>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="69" t="s">
+      <c r="A203" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="B203" s="72" t="s">
+      <c r="B203" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C203" s="73"/>
+      <c r="C203" s="65"/>
       <c r="D203" s="39">
         <v>4.5</v>
       </c>
@@ -20373,8 +20372,8 @@
       </c>
     </row>
     <row r="204" spans="1:5" ht="24">
-      <c r="A204" s="69"/>
-      <c r="B204" s="72" t="s">
+      <c r="A204" s="68"/>
+      <c r="B204" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C204" s="32" t="s">
@@ -20386,8 +20385,8 @@
       <c r="E204" s="34"/>
     </row>
     <row r="205" spans="1:5" ht="24">
-      <c r="A205" s="69"/>
-      <c r="B205" s="72"/>
+      <c r="A205" s="68"/>
+      <c r="B205" s="64"/>
       <c r="C205" s="32" t="s">
         <v>29</v>
       </c>
@@ -20397,99 +20396,99 @@
       <c r="E205" s="34"/>
     </row>
     <row r="206" spans="1:5">
-      <c r="A206" s="69"/>
-      <c r="B206" s="72" t="s">
+      <c r="A206" s="68"/>
+      <c r="B206" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C206" s="73"/>
+      <c r="C206" s="65"/>
       <c r="D206" s="39">
         <v>4.5</v>
       </c>
       <c r="E206" s="34"/>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207" s="69"/>
-      <c r="B207" s="72" t="s">
+      <c r="A207" s="68"/>
+      <c r="B207" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C207" s="73"/>
+      <c r="C207" s="65"/>
       <c r="D207" s="39">
         <v>4.5</v>
       </c>
       <c r="E207" s="34"/>
     </row>
     <row r="208" spans="1:5">
-      <c r="A208" s="69"/>
-      <c r="B208" s="72" t="s">
+      <c r="A208" s="68"/>
+      <c r="B208" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C208" s="73"/>
+      <c r="C208" s="65"/>
       <c r="D208" s="40">
         <v>1.3015873015873016</v>
       </c>
       <c r="E208" s="34"/>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="69"/>
-      <c r="B209" s="72" t="s">
+      <c r="A209" s="68"/>
+      <c r="B209" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C209" s="73"/>
+      <c r="C209" s="65"/>
       <c r="D209" s="50">
         <v>1.1408712905438989</v>
       </c>
       <c r="E209" s="34"/>
     </row>
     <row r="210" spans="1:5">
-      <c r="A210" s="69"/>
-      <c r="B210" s="72" t="s">
+      <c r="A210" s="68"/>
+      <c r="B210" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C210" s="73"/>
+      <c r="C210" s="65"/>
       <c r="D210" s="43">
         <v>2.6666666666666665</v>
       </c>
       <c r="E210" s="34"/>
     </row>
     <row r="211" spans="1:5">
-      <c r="A211" s="69"/>
-      <c r="B211" s="72" t="s">
+      <c r="A211" s="68"/>
+      <c r="B211" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C211" s="73"/>
+      <c r="C211" s="65"/>
       <c r="D211" s="43">
         <v>6.333333333333333</v>
       </c>
       <c r="E211" s="34"/>
     </row>
     <row r="212" spans="1:5">
-      <c r="A212" s="69"/>
-      <c r="B212" s="72" t="s">
+      <c r="A212" s="68"/>
+      <c r="B212" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C212" s="73"/>
+      <c r="C212" s="65"/>
       <c r="D212" s="43">
         <v>3.6666666666666665</v>
       </c>
       <c r="E212" s="34"/>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213" s="69"/>
-      <c r="B213" s="72" t="s">
+      <c r="A213" s="68"/>
+      <c r="B213" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C213" s="73"/>
+      <c r="C213" s="65"/>
       <c r="D213" s="43">
         <v>1.666666666666667</v>
       </c>
       <c r="E213" s="34"/>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214" s="69"/>
-      <c r="B214" s="72" t="s">
+      <c r="A214" s="68"/>
+      <c r="B214" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C214" s="73"/>
+      <c r="C214" s="65"/>
       <c r="D214" s="36">
         <v>0.11401926044698048</v>
       </c>
@@ -20498,11 +20497,11 @@
       </c>
     </row>
     <row r="215" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A215" s="76"/>
-      <c r="B215" s="74" t="s">
+      <c r="A215" s="69"/>
+      <c r="B215" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="C215" s="75"/>
+      <c r="C215" s="67"/>
       <c r="D215" s="51">
         <v>0.15823914336704359</v>
       </c>
@@ -20511,13 +20510,13 @@
       </c>
     </row>
     <row r="216" spans="1:5" ht="15.75" thickTop="1">
-      <c r="A216" s="72" t="s">
+      <c r="A216" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="B216" s="72"/>
-      <c r="C216" s="72"/>
-      <c r="D216" s="72"/>
-      <c r="E216" s="72"/>
+      <c r="B216" s="64"/>
+      <c r="C216" s="64"/>
+      <c r="D216" s="64"/>
+      <c r="E216" s="64"/>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="53"/>
@@ -20527,18 +20526,18 @@
       <c r="E217" s="53"/>
     </row>
     <row r="218" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A218" s="64" t="s">
+      <c r="A218" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="B218" s="64"/>
-      <c r="C218" s="64"/>
-      <c r="D218" s="64"/>
-      <c r="E218" s="64"/>
+      <c r="B218" s="70"/>
+      <c r="C218" s="70"/>
+      <c r="D218" s="70"/>
+      <c r="E218" s="70"/>
     </row>
     <row r="219" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A219" s="65"/>
-      <c r="B219" s="66"/>
-      <c r="C219" s="67"/>
+      <c r="A219" s="71"/>
+      <c r="B219" s="72"/>
+      <c r="C219" s="73"/>
       <c r="D219" s="28" t="s">
         <v>25</v>
       </c>
@@ -20547,13 +20546,13 @@
       </c>
     </row>
     <row r="220" spans="1:5" ht="15.75" thickTop="1">
-      <c r="A220" s="68" t="s">
+      <c r="A220" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B220" s="70" t="s">
+      <c r="B220" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C220" s="71"/>
+      <c r="C220" s="76"/>
       <c r="D220" s="30">
         <v>0.99166666666666625</v>
       </c>
@@ -20562,8 +20561,8 @@
       </c>
     </row>
     <row r="221" spans="1:5" ht="24">
-      <c r="A221" s="69"/>
-      <c r="B221" s="72" t="s">
+      <c r="A221" s="68"/>
+      <c r="B221" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C221" s="32" t="s">
@@ -20575,8 +20574,8 @@
       <c r="E221" s="34"/>
     </row>
     <row r="222" spans="1:5" ht="24">
-      <c r="A222" s="69"/>
-      <c r="B222" s="72"/>
+      <c r="A222" s="68"/>
+      <c r="B222" s="64"/>
       <c r="C222" s="32" t="s">
         <v>29</v>
       </c>
@@ -20586,99 +20585,99 @@
       <c r="E222" s="34"/>
     </row>
     <row r="223" spans="1:5">
-      <c r="A223" s="69"/>
-      <c r="B223" s="72" t="s">
+      <c r="A223" s="68"/>
+      <c r="B223" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C223" s="73"/>
+      <c r="C223" s="65"/>
       <c r="D223" s="33">
         <v>0.99444444444444413</v>
       </c>
       <c r="E223" s="34"/>
     </row>
     <row r="224" spans="1:5">
-      <c r="A224" s="69"/>
-      <c r="B224" s="72" t="s">
+      <c r="A224" s="68"/>
+      <c r="B224" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C224" s="73"/>
+      <c r="C224" s="65"/>
       <c r="D224" s="35">
         <v>1</v>
       </c>
       <c r="E224" s="34"/>
     </row>
     <row r="225" spans="1:5">
-      <c r="A225" s="69"/>
-      <c r="B225" s="72" t="s">
+      <c r="A225" s="68"/>
+      <c r="B225" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C225" s="73"/>
+      <c r="C225" s="65"/>
       <c r="D225" s="36">
         <v>5.5555555555561085E-4</v>
       </c>
       <c r="E225" s="34"/>
     </row>
     <row r="226" spans="1:5">
-      <c r="A226" s="69"/>
-      <c r="B226" s="72" t="s">
+      <c r="A226" s="68"/>
+      <c r="B226" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C226" s="73"/>
+      <c r="C226" s="65"/>
       <c r="D226" s="37">
         <v>2.3570226039552757E-2</v>
       </c>
       <c r="E226" s="34"/>
     </row>
     <row r="227" spans="1:5">
-      <c r="A227" s="69"/>
-      <c r="B227" s="72" t="s">
+      <c r="A227" s="68"/>
+      <c r="B227" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C227" s="73"/>
+      <c r="C227" s="65"/>
       <c r="D227" s="38">
         <v>0.93333333333333002</v>
       </c>
       <c r="E227" s="34"/>
     </row>
     <row r="228" spans="1:5">
-      <c r="A228" s="69"/>
-      <c r="B228" s="72" t="s">
+      <c r="A228" s="68"/>
+      <c r="B228" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C228" s="73"/>
+      <c r="C228" s="65"/>
       <c r="D228" s="39">
         <v>1</v>
       </c>
       <c r="E228" s="34"/>
     </row>
     <row r="229" spans="1:5">
-      <c r="A229" s="69"/>
-      <c r="B229" s="72" t="s">
+      <c r="A229" s="68"/>
+      <c r="B229" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C229" s="73"/>
+      <c r="C229" s="65"/>
       <c r="D229" s="38">
         <v>6.6666666666669983E-2</v>
       </c>
       <c r="E229" s="34"/>
     </row>
     <row r="230" spans="1:5">
-      <c r="A230" s="69"/>
-      <c r="B230" s="72" t="s">
+      <c r="A230" s="68"/>
+      <c r="B230" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C230" s="73"/>
+      <c r="C230" s="65"/>
       <c r="D230" s="39">
         <v>0</v>
       </c>
       <c r="E230" s="34"/>
     </row>
     <row r="231" spans="1:5">
-      <c r="A231" s="69"/>
-      <c r="B231" s="72" t="s">
+      <c r="A231" s="68"/>
+      <c r="B231" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C231" s="73"/>
+      <c r="C231" s="65"/>
       <c r="D231" s="40">
         <v>-2.8284271247461903</v>
       </c>
@@ -20687,11 +20686,11 @@
       </c>
     </row>
     <row r="232" spans="1:5">
-      <c r="A232" s="69"/>
-      <c r="B232" s="72" t="s">
+      <c r="A232" s="68"/>
+      <c r="B232" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C232" s="73"/>
+      <c r="C232" s="65"/>
       <c r="D232" s="40">
         <v>8.0000000000000018</v>
       </c>
@@ -20700,13 +20699,13 @@
       </c>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" s="69" t="s">
+      <c r="A233" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B233" s="72" t="s">
+      <c r="B233" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C233" s="73"/>
+      <c r="C233" s="65"/>
       <c r="D233" s="43">
         <v>11588.25</v>
       </c>
@@ -20715,8 +20714,8 @@
       </c>
     </row>
     <row r="234" spans="1:5" ht="24">
-      <c r="A234" s="69"/>
-      <c r="B234" s="72" t="s">
+      <c r="A234" s="68"/>
+      <c r="B234" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C234" s="32" t="s">
@@ -20728,8 +20727,8 @@
       <c r="E234" s="34"/>
     </row>
     <row r="235" spans="1:5" ht="24">
-      <c r="A235" s="69"/>
-      <c r="B235" s="72"/>
+      <c r="A235" s="68"/>
+      <c r="B235" s="64"/>
       <c r="C235" s="32" t="s">
         <v>29</v>
       </c>
@@ -20739,99 +20738,99 @@
       <c r="E235" s="34"/>
     </row>
     <row r="236" spans="1:5">
-      <c r="A236" s="69"/>
-      <c r="B236" s="72" t="s">
+      <c r="A236" s="68"/>
+      <c r="B236" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C236" s="73"/>
+      <c r="C236" s="65"/>
       <c r="D236" s="43">
         <v>10718.074074074075</v>
       </c>
       <c r="E236" s="34"/>
     </row>
     <row r="237" spans="1:5">
-      <c r="A237" s="69"/>
-      <c r="B237" s="72" t="s">
+      <c r="A237" s="68"/>
+      <c r="B237" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C237" s="73"/>
+      <c r="C237" s="65"/>
       <c r="D237" s="43">
         <v>9218.5</v>
       </c>
       <c r="E237" s="34"/>
     </row>
     <row r="238" spans="1:5">
-      <c r="A238" s="69"/>
-      <c r="B238" s="72" t="s">
+      <c r="A238" s="68"/>
+      <c r="B238" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C238" s="73"/>
+      <c r="C238" s="65"/>
       <c r="D238" s="40">
         <v>81281349.357142881</v>
       </c>
       <c r="E238" s="34"/>
     </row>
     <row r="239" spans="1:5">
-      <c r="A239" s="69"/>
-      <c r="B239" s="72" t="s">
+      <c r="A239" s="68"/>
+      <c r="B239" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C239" s="73"/>
+      <c r="C239" s="65"/>
       <c r="D239" s="40">
         <v>9015.6169704098938</v>
       </c>
       <c r="E239" s="34"/>
     </row>
     <row r="240" spans="1:5">
-      <c r="A240" s="69"/>
-      <c r="B240" s="72" t="s">
+      <c r="A240" s="68"/>
+      <c r="B240" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C240" s="73"/>
+      <c r="C240" s="65"/>
       <c r="D240" s="44">
         <v>5368.333333333333</v>
       </c>
       <c r="E240" s="34"/>
     </row>
     <row r="241" spans="1:5">
-      <c r="A241" s="69"/>
-      <c r="B241" s="72" t="s">
+      <c r="A241" s="68"/>
+      <c r="B241" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C241" s="73"/>
+      <c r="C241" s="65"/>
       <c r="D241" s="44">
         <v>33471.333333333336</v>
       </c>
       <c r="E241" s="34"/>
     </row>
     <row r="242" spans="1:5">
-      <c r="A242" s="69"/>
-      <c r="B242" s="72" t="s">
+      <c r="A242" s="68"/>
+      <c r="B242" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C242" s="73"/>
+      <c r="C242" s="65"/>
       <c r="D242" s="44">
         <v>28103.000000000004</v>
       </c>
       <c r="E242" s="34"/>
     </row>
     <row r="243" spans="1:5">
-      <c r="A243" s="69"/>
-      <c r="B243" s="72" t="s">
+      <c r="A243" s="68"/>
+      <c r="B243" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C243" s="73"/>
+      <c r="C243" s="65"/>
       <c r="D243" s="44">
         <v>3406.0000000000009</v>
       </c>
       <c r="E243" s="34"/>
     </row>
     <row r="244" spans="1:5">
-      <c r="A244" s="69"/>
-      <c r="B244" s="72" t="s">
+      <c r="A244" s="68"/>
+      <c r="B244" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C244" s="73"/>
+      <c r="C244" s="65"/>
       <c r="D244" s="40">
         <v>2.6083584021774744</v>
       </c>
@@ -20840,11 +20839,11 @@
       </c>
     </row>
     <row r="245" spans="1:5">
-      <c r="A245" s="69"/>
-      <c r="B245" s="72" t="s">
+      <c r="A245" s="68"/>
+      <c r="B245" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C245" s="73"/>
+      <c r="C245" s="65"/>
       <c r="D245" s="40">
         <v>7.1259876267564994</v>
       </c>
@@ -20853,13 +20852,13 @@
       </c>
     </row>
     <row r="246" spans="1:5">
-      <c r="A246" s="69" t="s">
+      <c r="A246" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B246" s="72" t="s">
+      <c r="B246" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C246" s="73"/>
+      <c r="C246" s="65"/>
       <c r="D246" s="43">
         <v>12139.44710775</v>
       </c>
@@ -20868,8 +20867,8 @@
       </c>
     </row>
     <row r="247" spans="1:5" ht="24">
-      <c r="A247" s="69"/>
-      <c r="B247" s="72" t="s">
+      <c r="A247" s="68"/>
+      <c r="B247" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C247" s="32" t="s">
@@ -20881,8 +20880,8 @@
       <c r="E247" s="34"/>
     </row>
     <row r="248" spans="1:5" ht="24">
-      <c r="A248" s="69"/>
-      <c r="B248" s="72"/>
+      <c r="A248" s="68"/>
+      <c r="B248" s="64"/>
       <c r="C248" s="32" t="s">
         <v>29</v>
       </c>
@@ -20892,99 +20891,99 @@
       <c r="E248" s="34"/>
     </row>
     <row r="249" spans="1:5">
-      <c r="A249" s="69"/>
-      <c r="B249" s="72" t="s">
+      <c r="A249" s="68"/>
+      <c r="B249" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C249" s="73"/>
+      <c r="C249" s="65"/>
       <c r="D249" s="43">
         <v>11853.92382311111</v>
       </c>
       <c r="E249" s="34"/>
     </row>
     <row r="250" spans="1:5">
-      <c r="A250" s="69"/>
-      <c r="B250" s="72" t="s">
+      <c r="A250" s="68"/>
+      <c r="B250" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C250" s="73"/>
+      <c r="C250" s="65"/>
       <c r="D250" s="43">
         <v>10532.912316</v>
       </c>
       <c r="E250" s="34"/>
     </row>
     <row r="251" spans="1:5">
-      <c r="A251" s="69"/>
-      <c r="B251" s="72" t="s">
+      <c r="A251" s="68"/>
+      <c r="B251" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C251" s="73"/>
+      <c r="C251" s="65"/>
       <c r="D251" s="40">
         <v>14858611.248683618</v>
       </c>
       <c r="E251" s="34"/>
     </row>
     <row r="252" spans="1:5">
-      <c r="A252" s="69"/>
-      <c r="B252" s="72" t="s">
+      <c r="A252" s="68"/>
+      <c r="B252" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C252" s="73"/>
+      <c r="C252" s="65"/>
       <c r="D252" s="40">
         <v>3854.6869196711186</v>
       </c>
       <c r="E252" s="34"/>
     </row>
     <row r="253" spans="1:5">
-      <c r="A253" s="69"/>
-      <c r="B253" s="72" t="s">
+      <c r="A253" s="68"/>
+      <c r="B253" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C253" s="73"/>
+      <c r="C253" s="65"/>
       <c r="D253" s="44">
         <v>9184.2309889999997</v>
       </c>
       <c r="E253" s="34"/>
     </row>
     <row r="254" spans="1:5">
-      <c r="A254" s="69"/>
-      <c r="B254" s="72" t="s">
+      <c r="A254" s="68"/>
+      <c r="B254" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C254" s="73"/>
+      <c r="C254" s="65"/>
       <c r="D254" s="44">
         <v>20234.082350000001</v>
       </c>
       <c r="E254" s="34"/>
     </row>
     <row r="255" spans="1:5">
-      <c r="A255" s="69"/>
-      <c r="B255" s="72" t="s">
+      <c r="A255" s="68"/>
+      <c r="B255" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C255" s="73"/>
+      <c r="C255" s="65"/>
       <c r="D255" s="44">
         <v>11049.851361000001</v>
       </c>
       <c r="E255" s="34"/>
     </row>
     <row r="256" spans="1:5">
-      <c r="A256" s="69"/>
-      <c r="B256" s="72" t="s">
+      <c r="A256" s="68"/>
+      <c r="B256" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C256" s="73"/>
+      <c r="C256" s="65"/>
       <c r="D256" s="44">
         <v>5131.103478250001</v>
       </c>
       <c r="E256" s="34"/>
     </row>
     <row r="257" spans="1:5">
-      <c r="A257" s="69"/>
-      <c r="B257" s="72" t="s">
+      <c r="A257" s="68"/>
+      <c r="B257" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C257" s="73"/>
+      <c r="C257" s="65"/>
       <c r="D257" s="40">
         <v>1.6362318832774967</v>
       </c>
@@ -20993,11 +20992,11 @@
       </c>
     </row>
     <row r="258" spans="1:5">
-      <c r="A258" s="69"/>
-      <c r="B258" s="72" t="s">
+      <c r="A258" s="68"/>
+      <c r="B258" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C258" s="73"/>
+      <c r="C258" s="65"/>
       <c r="D258" s="40">
         <v>2.2399839344349659</v>
       </c>
@@ -21006,13 +21005,13 @@
       </c>
     </row>
     <row r="259" spans="1:5">
-      <c r="A259" s="69" t="s">
+      <c r="A259" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B259" s="72" t="s">
+      <c r="B259" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C259" s="73"/>
+      <c r="C259" s="65"/>
       <c r="D259" s="43">
         <v>2.375</v>
       </c>
@@ -21021,8 +21020,8 @@
       </c>
     </row>
     <row r="260" spans="1:5" ht="24">
-      <c r="A260" s="69"/>
-      <c r="B260" s="72" t="s">
+      <c r="A260" s="68"/>
+      <c r="B260" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C260" s="32" t="s">
@@ -21034,8 +21033,8 @@
       <c r="E260" s="34"/>
     </row>
     <row r="261" spans="1:5" ht="24">
-      <c r="A261" s="69"/>
-      <c r="B261" s="72"/>
+      <c r="A261" s="68"/>
+      <c r="B261" s="64"/>
       <c r="C261" s="32" t="s">
         <v>29</v>
       </c>
@@ -21045,99 +21044,99 @@
       <c r="E261" s="34"/>
     </row>
     <row r="262" spans="1:5">
-      <c r="A262" s="69"/>
-      <c r="B262" s="72" t="s">
+      <c r="A262" s="68"/>
+      <c r="B262" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C262" s="73"/>
+      <c r="C262" s="65"/>
       <c r="D262" s="43">
         <v>1.9722222222222221</v>
       </c>
       <c r="E262" s="34"/>
     </row>
     <row r="263" spans="1:5">
-      <c r="A263" s="69"/>
-      <c r="B263" s="72" t="s">
+      <c r="A263" s="68"/>
+      <c r="B263" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C263" s="73"/>
+      <c r="C263" s="65"/>
       <c r="D263" s="45">
         <v>0.5</v>
       </c>
       <c r="E263" s="34"/>
     </row>
     <row r="264" spans="1:5">
-      <c r="A264" s="69"/>
-      <c r="B264" s="72" t="s">
+      <c r="A264" s="68"/>
+      <c r="B264" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C264" s="73"/>
+      <c r="C264" s="65"/>
       <c r="D264" s="40">
         <v>17.125</v>
       </c>
       <c r="E264" s="34"/>
     </row>
     <row r="265" spans="1:5">
-      <c r="A265" s="69"/>
-      <c r="B265" s="72" t="s">
+      <c r="A265" s="68"/>
+      <c r="B265" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C265" s="73"/>
+      <c r="C265" s="65"/>
       <c r="D265" s="40">
         <v>4.1382363393117121</v>
       </c>
       <c r="E265" s="34"/>
     </row>
     <row r="266" spans="1:5">
-      <c r="A266" s="69"/>
-      <c r="B266" s="72" t="s">
+      <c r="A266" s="68"/>
+      <c r="B266" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C266" s="73"/>
+      <c r="C266" s="65"/>
       <c r="D266" s="44">
         <v>0</v>
       </c>
       <c r="E266" s="34"/>
     </row>
     <row r="267" spans="1:5">
-      <c r="A267" s="69"/>
-      <c r="B267" s="72" t="s">
+      <c r="A267" s="68"/>
+      <c r="B267" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C267" s="73"/>
+      <c r="C267" s="65"/>
       <c r="D267" s="44">
         <v>12</v>
       </c>
       <c r="E267" s="34"/>
     </row>
     <row r="268" spans="1:5">
-      <c r="A268" s="69"/>
-      <c r="B268" s="72" t="s">
+      <c r="A268" s="68"/>
+      <c r="B268" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C268" s="73"/>
+      <c r="C268" s="65"/>
       <c r="D268" s="44">
         <v>12</v>
       </c>
       <c r="E268" s="34"/>
     </row>
     <row r="269" spans="1:5">
-      <c r="A269" s="69"/>
-      <c r="B269" s="72" t="s">
+      <c r="A269" s="68"/>
+      <c r="B269" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C269" s="73"/>
+      <c r="C269" s="65"/>
       <c r="D269" s="44">
         <v>3.5</v>
       </c>
       <c r="E269" s="34"/>
     </row>
     <row r="270" spans="1:5">
-      <c r="A270" s="69"/>
-      <c r="B270" s="72" t="s">
+      <c r="A270" s="68"/>
+      <c r="B270" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C270" s="73"/>
+      <c r="C270" s="65"/>
       <c r="D270" s="40">
         <v>2.2569850218804568</v>
       </c>
@@ -21146,11 +21145,11 @@
       </c>
     </row>
     <row r="271" spans="1:5">
-      <c r="A271" s="69"/>
-      <c r="B271" s="72" t="s">
+      <c r="A271" s="68"/>
+      <c r="B271" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C271" s="73"/>
+      <c r="C271" s="65"/>
       <c r="D271" s="40">
         <v>5.2947002275789101</v>
       </c>
@@ -21159,13 +21158,13 @@
       </c>
     </row>
     <row r="272" spans="1:5">
-      <c r="A272" s="69" t="s">
+      <c r="A272" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B272" s="72" t="s">
+      <c r="B272" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C272" s="73"/>
+      <c r="C272" s="65"/>
       <c r="D272" s="43">
         <v>3</v>
       </c>
@@ -21174,8 +21173,8 @@
       </c>
     </row>
     <row r="273" spans="1:5" ht="24">
-      <c r="A273" s="69"/>
-      <c r="B273" s="72" t="s">
+      <c r="A273" s="68"/>
+      <c r="B273" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C273" s="32" t="s">
@@ -21187,8 +21186,8 @@
       <c r="E273" s="34"/>
     </row>
     <row r="274" spans="1:5" ht="24">
-      <c r="A274" s="69"/>
-      <c r="B274" s="72"/>
+      <c r="A274" s="68"/>
+      <c r="B274" s="64"/>
       <c r="C274" s="32" t="s">
         <v>29</v>
       </c>
@@ -21198,99 +21197,99 @@
       <c r="E274" s="34"/>
     </row>
     <row r="275" spans="1:5">
-      <c r="A275" s="69"/>
-      <c r="B275" s="72" t="s">
+      <c r="A275" s="68"/>
+      <c r="B275" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C275" s="73"/>
+      <c r="C275" s="65"/>
       <c r="D275" s="43">
         <v>2</v>
       </c>
       <c r="E275" s="34"/>
     </row>
     <row r="276" spans="1:5">
-      <c r="A276" s="69"/>
-      <c r="B276" s="72" t="s">
+      <c r="A276" s="68"/>
+      <c r="B276" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C276" s="73"/>
+      <c r="C276" s="65"/>
       <c r="D276" s="43">
         <v>0</v>
       </c>
       <c r="E276" s="34"/>
     </row>
     <row r="277" spans="1:5">
-      <c r="A277" s="69"/>
-      <c r="B277" s="72" t="s">
+      <c r="A277" s="68"/>
+      <c r="B277" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C277" s="73"/>
+      <c r="C277" s="65"/>
       <c r="D277" s="40">
         <v>72</v>
       </c>
       <c r="E277" s="34"/>
     </row>
     <row r="278" spans="1:5">
-      <c r="A278" s="69"/>
-      <c r="B278" s="72" t="s">
+      <c r="A278" s="68"/>
+      <c r="B278" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C278" s="73"/>
+      <c r="C278" s="65"/>
       <c r="D278" s="40">
         <v>8.4852813742385695</v>
       </c>
       <c r="E278" s="34"/>
     </row>
     <row r="279" spans="1:5">
-      <c r="A279" s="69"/>
-      <c r="B279" s="72" t="s">
+      <c r="A279" s="68"/>
+      <c r="B279" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C279" s="73"/>
+      <c r="C279" s="65"/>
       <c r="D279" s="44">
         <v>0</v>
       </c>
       <c r="E279" s="34"/>
     </row>
     <row r="280" spans="1:5">
-      <c r="A280" s="69"/>
-      <c r="B280" s="72" t="s">
+      <c r="A280" s="68"/>
+      <c r="B280" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C280" s="73"/>
+      <c r="C280" s="65"/>
       <c r="D280" s="44">
         <v>24</v>
       </c>
       <c r="E280" s="34"/>
     </row>
     <row r="281" spans="1:5">
-      <c r="A281" s="69"/>
-      <c r="B281" s="72" t="s">
+      <c r="A281" s="68"/>
+      <c r="B281" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C281" s="73"/>
+      <c r="C281" s="65"/>
       <c r="D281" s="44">
         <v>24</v>
       </c>
       <c r="E281" s="34"/>
     </row>
     <row r="282" spans="1:5">
-      <c r="A282" s="69"/>
-      <c r="B282" s="72" t="s">
+      <c r="A282" s="68"/>
+      <c r="B282" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C282" s="73"/>
+      <c r="C282" s="65"/>
       <c r="D282" s="44">
         <v>0</v>
       </c>
       <c r="E282" s="34"/>
     </row>
     <row r="283" spans="1:5">
-      <c r="A283" s="69"/>
-      <c r="B283" s="72" t="s">
+      <c r="A283" s="68"/>
+      <c r="B283" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C283" s="73"/>
+      <c r="C283" s="65"/>
       <c r="D283" s="40">
         <v>2.8284271247461903</v>
       </c>
@@ -21299,11 +21298,11 @@
       </c>
     </row>
     <row r="284" spans="1:5">
-      <c r="A284" s="69"/>
-      <c r="B284" s="72" t="s">
+      <c r="A284" s="68"/>
+      <c r="B284" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C284" s="73"/>
+      <c r="C284" s="65"/>
       <c r="D284" s="40">
         <v>8</v>
       </c>
@@ -21312,13 +21311,13 @@
       </c>
     </row>
     <row r="285" spans="1:5">
-      <c r="A285" s="69" t="s">
+      <c r="A285" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="B285" s="72" t="s">
+      <c r="B285" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C285" s="73"/>
+      <c r="C285" s="65"/>
       <c r="D285" s="43">
         <v>6.25</v>
       </c>
@@ -21327,8 +21326,8 @@
       </c>
     </row>
     <row r="286" spans="1:5" ht="24">
-      <c r="A286" s="69"/>
-      <c r="B286" s="72" t="s">
+      <c r="A286" s="68"/>
+      <c r="B286" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C286" s="32" t="s">
@@ -21340,8 +21339,8 @@
       <c r="E286" s="34"/>
     </row>
     <row r="287" spans="1:5" ht="24">
-      <c r="A287" s="69"/>
-      <c r="B287" s="72"/>
+      <c r="A287" s="68"/>
+      <c r="B287" s="64"/>
       <c r="C287" s="32" t="s">
         <v>29</v>
       </c>
@@ -21351,99 +21350,99 @@
       <c r="E287" s="34"/>
     </row>
     <row r="288" spans="1:5">
-      <c r="A288" s="69"/>
-      <c r="B288" s="72" t="s">
+      <c r="A288" s="68"/>
+      <c r="B288" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C288" s="73"/>
+      <c r="C288" s="65"/>
       <c r="D288" s="43">
         <v>6.2222222222222223</v>
       </c>
       <c r="E288" s="34"/>
     </row>
     <row r="289" spans="1:5">
-      <c r="A289" s="69"/>
-      <c r="B289" s="72" t="s">
+      <c r="A289" s="68"/>
+      <c r="B289" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C289" s="73"/>
+      <c r="C289" s="65"/>
       <c r="D289" s="43">
         <v>6</v>
       </c>
       <c r="E289" s="34"/>
     </row>
     <row r="290" spans="1:5">
-      <c r="A290" s="69"/>
-      <c r="B290" s="72" t="s">
+      <c r="A290" s="68"/>
+      <c r="B290" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C290" s="73"/>
+      <c r="C290" s="65"/>
       <c r="D290" s="36">
         <v>0.21428571428571427</v>
       </c>
       <c r="E290" s="34"/>
     </row>
     <row r="291" spans="1:5">
-      <c r="A291" s="69"/>
-      <c r="B291" s="72" t="s">
+      <c r="A291" s="68"/>
+      <c r="B291" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C291" s="73"/>
+      <c r="C291" s="65"/>
       <c r="D291" s="36">
         <v>0.46291004988627571</v>
       </c>
       <c r="E291" s="34"/>
     </row>
     <row r="292" spans="1:5">
-      <c r="A292" s="69"/>
-      <c r="B292" s="72" t="s">
+      <c r="A292" s="68"/>
+      <c r="B292" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C292" s="73"/>
+      <c r="C292" s="65"/>
       <c r="D292" s="44">
         <v>6</v>
       </c>
       <c r="E292" s="34"/>
     </row>
     <row r="293" spans="1:5">
-      <c r="A293" s="69"/>
-      <c r="B293" s="72" t="s">
+      <c r="A293" s="68"/>
+      <c r="B293" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C293" s="73"/>
+      <c r="C293" s="65"/>
       <c r="D293" s="44">
         <v>7</v>
       </c>
       <c r="E293" s="34"/>
     </row>
     <row r="294" spans="1:5">
-      <c r="A294" s="69"/>
-      <c r="B294" s="72" t="s">
+      <c r="A294" s="68"/>
+      <c r="B294" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C294" s="73"/>
+      <c r="C294" s="65"/>
       <c r="D294" s="44">
         <v>1</v>
       </c>
       <c r="E294" s="34"/>
     </row>
     <row r="295" spans="1:5">
-      <c r="A295" s="69"/>
-      <c r="B295" s="72" t="s">
+      <c r="A295" s="68"/>
+      <c r="B295" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C295" s="73"/>
+      <c r="C295" s="65"/>
       <c r="D295" s="46">
         <v>0.75</v>
       </c>
       <c r="E295" s="34"/>
     </row>
     <row r="296" spans="1:5">
-      <c r="A296" s="69"/>
-      <c r="B296" s="72" t="s">
+      <c r="A296" s="68"/>
+      <c r="B296" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C296" s="73"/>
+      <c r="C296" s="65"/>
       <c r="D296" s="40">
         <v>1.4401645996461911</v>
       </c>
@@ -21452,11 +21451,11 @@
       </c>
     </row>
     <row r="297" spans="1:5">
-      <c r="A297" s="69"/>
-      <c r="B297" s="72" t="s">
+      <c r="A297" s="68"/>
+      <c r="B297" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C297" s="73"/>
+      <c r="C297" s="65"/>
       <c r="D297" s="40">
         <v>0</v>
       </c>
@@ -21465,13 +21464,13 @@
       </c>
     </row>
     <row r="298" spans="1:5">
-      <c r="A298" s="69" t="s">
+      <c r="A298" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B298" s="72" t="s">
+      <c r="B298" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C298" s="73"/>
+      <c r="C298" s="65"/>
       <c r="D298" s="39">
         <v>6.53125</v>
       </c>
@@ -21480,8 +21479,8 @@
       </c>
     </row>
     <row r="299" spans="1:5" ht="24">
-      <c r="A299" s="69"/>
-      <c r="B299" s="72" t="s">
+      <c r="A299" s="68"/>
+      <c r="B299" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C299" s="32" t="s">
@@ -21493,8 +21492,8 @@
       <c r="E299" s="34"/>
     </row>
     <row r="300" spans="1:5" ht="24">
-      <c r="A300" s="69"/>
-      <c r="B300" s="72"/>
+      <c r="A300" s="68"/>
+      <c r="B300" s="64"/>
       <c r="C300" s="32" t="s">
         <v>29</v>
       </c>
@@ -21504,99 +21503,99 @@
       <c r="E300" s="34"/>
     </row>
     <row r="301" spans="1:5">
-      <c r="A301" s="69"/>
-      <c r="B301" s="72" t="s">
+      <c r="A301" s="68"/>
+      <c r="B301" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C301" s="73"/>
+      <c r="C301" s="65"/>
       <c r="D301" s="39">
         <v>6.541666666666667</v>
       </c>
       <c r="E301" s="34"/>
     </row>
     <row r="302" spans="1:5">
-      <c r="A302" s="69"/>
-      <c r="B302" s="72" t="s">
+      <c r="A302" s="68"/>
+      <c r="B302" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C302" s="73"/>
+      <c r="C302" s="65"/>
       <c r="D302" s="39">
         <v>6.4375</v>
       </c>
       <c r="E302" s="34"/>
     </row>
     <row r="303" spans="1:5">
-      <c r="A303" s="69"/>
-      <c r="B303" s="72" t="s">
+      <c r="A303" s="68"/>
+      <c r="B303" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C303" s="73"/>
+      <c r="C303" s="65"/>
       <c r="D303" s="36">
         <v>0.14174107142857142</v>
       </c>
       <c r="E303" s="34"/>
     </row>
     <row r="304" spans="1:5">
-      <c r="A304" s="69"/>
-      <c r="B304" s="72" t="s">
+      <c r="A304" s="68"/>
+      <c r="B304" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C304" s="73"/>
+      <c r="C304" s="65"/>
       <c r="D304" s="48">
         <v>0.37648515432692886</v>
       </c>
       <c r="E304" s="34"/>
     </row>
     <row r="305" spans="1:5">
-      <c r="A305" s="69"/>
-      <c r="B305" s="72" t="s">
+      <c r="A305" s="68"/>
+      <c r="B305" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C305" s="73"/>
+      <c r="C305" s="65"/>
       <c r="D305" s="43">
         <v>5.875</v>
       </c>
       <c r="E305" s="34"/>
     </row>
     <row r="306" spans="1:5">
-      <c r="A306" s="69"/>
-      <c r="B306" s="72" t="s">
+      <c r="A306" s="68"/>
+      <c r="B306" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C306" s="73"/>
+      <c r="C306" s="65"/>
       <c r="D306" s="43">
         <v>7</v>
       </c>
       <c r="E306" s="34"/>
     </row>
     <row r="307" spans="1:5">
-      <c r="A307" s="69"/>
-      <c r="B307" s="72" t="s">
+      <c r="A307" s="68"/>
+      <c r="B307" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C307" s="73"/>
+      <c r="C307" s="65"/>
       <c r="D307" s="43">
         <v>1.125</v>
       </c>
       <c r="E307" s="34"/>
     </row>
     <row r="308" spans="1:5">
-      <c r="A308" s="69"/>
-      <c r="B308" s="72" t="s">
+      <c r="A308" s="68"/>
+      <c r="B308" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C308" s="73"/>
+      <c r="C308" s="65"/>
       <c r="D308" s="45">
         <v>0.5625</v>
       </c>
       <c r="E308" s="34"/>
     </row>
     <row r="309" spans="1:5">
-      <c r="A309" s="69"/>
-      <c r="B309" s="72" t="s">
+      <c r="A309" s="68"/>
+      <c r="B309" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C309" s="73"/>
+      <c r="C309" s="65"/>
       <c r="D309" s="36">
         <v>-0.2771177228699423</v>
       </c>
@@ -21605,11 +21604,11 @@
       </c>
     </row>
     <row r="310" spans="1:5">
-      <c r="A310" s="69"/>
-      <c r="B310" s="72" t="s">
+      <c r="A310" s="68"/>
+      <c r="B310" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C310" s="73"/>
+      <c r="C310" s="65"/>
       <c r="D310" s="36">
         <v>-1.7360034720069441E-2</v>
       </c>
@@ -21618,13 +21617,13 @@
       </c>
     </row>
     <row r="311" spans="1:5">
-      <c r="A311" s="69" t="s">
+      <c r="A311" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B311" s="72" t="s">
+      <c r="B311" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C311" s="73"/>
+      <c r="C311" s="65"/>
       <c r="D311" s="39">
         <v>5.708333333333333</v>
       </c>
@@ -21633,8 +21632,8 @@
       </c>
     </row>
     <row r="312" spans="1:5" ht="24">
-      <c r="A312" s="69"/>
-      <c r="B312" s="72" t="s">
+      <c r="A312" s="68"/>
+      <c r="B312" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C312" s="32" t="s">
@@ -21646,8 +21645,8 @@
       <c r="E312" s="34"/>
     </row>
     <row r="313" spans="1:5" ht="24">
-      <c r="A313" s="69"/>
-      <c r="B313" s="72"/>
+      <c r="A313" s="68"/>
+      <c r="B313" s="64"/>
       <c r="C313" s="32" t="s">
         <v>29</v>
       </c>
@@ -21657,99 +21656,99 @@
       <c r="E313" s="34"/>
     </row>
     <row r="314" spans="1:5">
-      <c r="A314" s="69"/>
-      <c r="B314" s="72" t="s">
+      <c r="A314" s="68"/>
+      <c r="B314" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C314" s="73"/>
+      <c r="C314" s="65"/>
       <c r="D314" s="39">
         <v>5.7685185185185182</v>
       </c>
       <c r="E314" s="34"/>
     </row>
     <row r="315" spans="1:5">
-      <c r="A315" s="69"/>
-      <c r="B315" s="72" t="s">
+      <c r="A315" s="68"/>
+      <c r="B315" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C315" s="73"/>
+      <c r="C315" s="65"/>
       <c r="D315" s="39">
         <v>6</v>
       </c>
       <c r="E315" s="34"/>
     </row>
     <row r="316" spans="1:5">
-      <c r="A316" s="69"/>
-      <c r="B316" s="72" t="s">
+      <c r="A316" s="68"/>
+      <c r="B316" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C316" s="73"/>
+      <c r="C316" s="65"/>
       <c r="D316" s="36">
         <v>0.93452380952380942</v>
       </c>
       <c r="E316" s="34"/>
     </row>
     <row r="317" spans="1:5">
-      <c r="A317" s="69"/>
-      <c r="B317" s="72" t="s">
+      <c r="A317" s="68"/>
+      <c r="B317" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C317" s="73"/>
+      <c r="C317" s="65"/>
       <c r="D317" s="48">
         <v>0.96670771669818045</v>
       </c>
       <c r="E317" s="34"/>
     </row>
     <row r="318" spans="1:5">
-      <c r="A318" s="69"/>
-      <c r="B318" s="72" t="s">
+      <c r="A318" s="68"/>
+      <c r="B318" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C318" s="73"/>
+      <c r="C318" s="65"/>
       <c r="D318" s="43">
         <v>3.6666666666666665</v>
       </c>
       <c r="E318" s="34"/>
     </row>
     <row r="319" spans="1:5">
-      <c r="A319" s="69"/>
-      <c r="B319" s="72" t="s">
+      <c r="A319" s="68"/>
+      <c r="B319" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C319" s="73"/>
+      <c r="C319" s="65"/>
       <c r="D319" s="43">
         <v>6.666666666666667</v>
       </c>
       <c r="E319" s="34"/>
     </row>
     <row r="320" spans="1:5">
-      <c r="A320" s="69"/>
-      <c r="B320" s="72" t="s">
+      <c r="A320" s="68"/>
+      <c r="B320" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C320" s="73"/>
+      <c r="C320" s="65"/>
       <c r="D320" s="43">
         <v>3.0000000000000004</v>
       </c>
       <c r="E320" s="34"/>
     </row>
     <row r="321" spans="1:5">
-      <c r="A321" s="69"/>
-      <c r="B321" s="72" t="s">
+      <c r="A321" s="68"/>
+      <c r="B321" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C321" s="73"/>
+      <c r="C321" s="65"/>
       <c r="D321" s="43">
         <v>1</v>
       </c>
       <c r="E321" s="34"/>
     </row>
     <row r="322" spans="1:5">
-      <c r="A322" s="69"/>
-      <c r="B322" s="72" t="s">
+      <c r="A322" s="68"/>
+      <c r="B322" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C322" s="73"/>
+      <c r="C322" s="65"/>
       <c r="D322" s="40">
         <v>-1.4766193356930348</v>
       </c>
@@ -21758,11 +21757,11 @@
       </c>
     </row>
     <row r="323" spans="1:5">
-      <c r="A323" s="69"/>
-      <c r="B323" s="72" t="s">
+      <c r="A323" s="68"/>
+      <c r="B323" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C323" s="73"/>
+      <c r="C323" s="65"/>
       <c r="D323" s="40">
         <v>2.447742301918943</v>
       </c>
@@ -21771,13 +21770,13 @@
       </c>
     </row>
     <row r="324" spans="1:5">
-      <c r="A324" s="69" t="s">
+      <c r="A324" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B324" s="72" t="s">
+      <c r="B324" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C324" s="73"/>
+      <c r="C324" s="65"/>
       <c r="D324" s="33">
         <v>0.2128998751599625</v>
       </c>
@@ -21786,8 +21785,8 @@
       </c>
     </row>
     <row r="325" spans="1:5" ht="24">
-      <c r="A325" s="69"/>
-      <c r="B325" s="72" t="s">
+      <c r="A325" s="68"/>
+      <c r="B325" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C325" s="32" t="s">
@@ -21799,8 +21798,8 @@
       <c r="E325" s="34"/>
     </row>
     <row r="326" spans="1:5" ht="24">
-      <c r="A326" s="69"/>
-      <c r="B326" s="72"/>
+      <c r="A326" s="68"/>
+      <c r="B326" s="64"/>
       <c r="C326" s="32" t="s">
         <v>29</v>
       </c>
@@ -21810,99 +21809,99 @@
       <c r="E326" s="34"/>
     </row>
     <row r="327" spans="1:5">
-      <c r="A327" s="69"/>
-      <c r="B327" s="72" t="s">
+      <c r="A327" s="68"/>
+      <c r="B327" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C327" s="73"/>
+      <c r="C327" s="65"/>
       <c r="D327" s="33">
         <v>0.20924874569434221</v>
       </c>
       <c r="E327" s="34"/>
     </row>
     <row r="328" spans="1:5">
-      <c r="A328" s="69"/>
-      <c r="B328" s="72" t="s">
+      <c r="A328" s="68"/>
+      <c r="B328" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C328" s="73"/>
+      <c r="C328" s="65"/>
       <c r="D328" s="33">
         <v>0.20876736111110999</v>
       </c>
       <c r="E328" s="34"/>
     </row>
     <row r="329" spans="1:5">
-      <c r="A329" s="69"/>
-      <c r="B329" s="72" t="s">
+      <c r="A329" s="68"/>
+      <c r="B329" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C329" s="73"/>
+      <c r="C329" s="65"/>
       <c r="D329" s="36">
         <v>6.0335285576212988E-3</v>
       </c>
       <c r="E329" s="34"/>
     </row>
     <row r="330" spans="1:5">
-      <c r="A330" s="69"/>
-      <c r="B330" s="72" t="s">
+      <c r="A330" s="68"/>
+      <c r="B330" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C330" s="73"/>
+      <c r="C330" s="65"/>
       <c r="D330" s="37">
         <v>7.7675791322787943E-2</v>
       </c>
       <c r="E330" s="34"/>
     </row>
     <row r="331" spans="1:5">
-      <c r="A331" s="69"/>
-      <c r="B331" s="72" t="s">
+      <c r="A331" s="68"/>
+      <c r="B331" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C331" s="73"/>
+      <c r="C331" s="65"/>
       <c r="D331" s="38">
         <v>0.11897106109324999</v>
       </c>
       <c r="E331" s="34"/>
     </row>
     <row r="332" spans="1:5">
-      <c r="A332" s="69"/>
-      <c r="B332" s="72" t="s">
+      <c r="A332" s="68"/>
+      <c r="B332" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C332" s="73"/>
+      <c r="C332" s="65"/>
       <c r="D332" s="38">
         <v>0.37254901960783998</v>
       </c>
       <c r="E332" s="34"/>
     </row>
     <row r="333" spans="1:5">
-      <c r="A333" s="69"/>
-      <c r="B333" s="72" t="s">
+      <c r="A333" s="68"/>
+      <c r="B333" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C333" s="73"/>
+      <c r="C333" s="65"/>
       <c r="D333" s="38">
         <v>0.25357795851458997</v>
       </c>
       <c r="E333" s="34"/>
     </row>
     <row r="334" spans="1:5">
-      <c r="A334" s="69"/>
-      <c r="B334" s="72" t="s">
+      <c r="A334" s="68"/>
+      <c r="B334" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C334" s="73"/>
+      <c r="C334" s="65"/>
       <c r="D334" s="38">
         <v>8.7975213609812503E-2</v>
       </c>
       <c r="E334" s="34"/>
     </row>
     <row r="335" spans="1:5">
-      <c r="A335" s="69"/>
-      <c r="B335" s="72" t="s">
+      <c r="A335" s="68"/>
+      <c r="B335" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C335" s="73"/>
+      <c r="C335" s="65"/>
       <c r="D335" s="40">
         <v>1.1776528179235235</v>
       </c>
@@ -21911,11 +21910,11 @@
       </c>
     </row>
     <row r="336" spans="1:5">
-      <c r="A336" s="69"/>
-      <c r="B336" s="72" t="s">
+      <c r="A336" s="68"/>
+      <c r="B336" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C336" s="73"/>
+      <c r="C336" s="65"/>
       <c r="D336" s="40">
         <v>2.1805787763952793</v>
       </c>
@@ -21924,13 +21923,13 @@
       </c>
     </row>
     <row r="337" spans="1:5">
-      <c r="A337" s="69" t="s">
+      <c r="A337" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B337" s="72" t="s">
+      <c r="B337" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C337" s="73"/>
+      <c r="C337" s="65"/>
       <c r="D337" s="43">
         <v>246281.875</v>
       </c>
@@ -21939,8 +21938,8 @@
       </c>
     </row>
     <row r="338" spans="1:5" ht="24">
-      <c r="A338" s="69"/>
-      <c r="B338" s="72" t="s">
+      <c r="A338" s="68"/>
+      <c r="B338" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C338" s="32" t="s">
@@ -21952,8 +21951,8 @@
       <c r="E338" s="34"/>
     </row>
     <row r="339" spans="1:5" ht="24">
-      <c r="A339" s="69"/>
-      <c r="B339" s="72"/>
+      <c r="A339" s="68"/>
+      <c r="B339" s="64"/>
       <c r="C339" s="32" t="s">
         <v>29</v>
       </c>
@@ -21963,99 +21962,99 @@
       <c r="E339" s="34"/>
     </row>
     <row r="340" spans="1:5">
-      <c r="A340" s="69"/>
-      <c r="B340" s="72" t="s">
+      <c r="A340" s="68"/>
+      <c r="B340" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C340" s="73"/>
+      <c r="C340" s="65"/>
       <c r="D340" s="43">
         <v>249903.87962962964</v>
       </c>
       <c r="E340" s="34"/>
     </row>
     <row r="341" spans="1:5">
-      <c r="A341" s="69"/>
-      <c r="B341" s="72" t="s">
+      <c r="A341" s="68"/>
+      <c r="B341" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C341" s="73"/>
+      <c r="C341" s="65"/>
       <c r="D341" s="43">
         <v>272048.16666666663</v>
       </c>
       <c r="E341" s="34"/>
     </row>
     <row r="342" spans="1:5">
-      <c r="A342" s="69"/>
-      <c r="B342" s="72" t="s">
+      <c r="A342" s="68"/>
+      <c r="B342" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C342" s="73"/>
+      <c r="C342" s="65"/>
       <c r="D342" s="40">
         <v>4465482404.9503965</v>
       </c>
       <c r="E342" s="34"/>
     </row>
     <row r="343" spans="1:5">
-      <c r="A343" s="69"/>
-      <c r="B343" s="72" t="s">
+      <c r="A343" s="68"/>
+      <c r="B343" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C343" s="73"/>
+      <c r="C343" s="65"/>
       <c r="D343" s="40">
         <v>66824.265090986199</v>
       </c>
       <c r="E343" s="34"/>
     </row>
     <row r="344" spans="1:5">
-      <c r="A344" s="69"/>
-      <c r="B344" s="72" t="s">
+      <c r="A344" s="68"/>
+      <c r="B344" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C344" s="73"/>
+      <c r="C344" s="65"/>
       <c r="D344" s="44">
         <v>127388</v>
       </c>
       <c r="E344" s="34"/>
     </row>
     <row r="345" spans="1:5">
-      <c r="A345" s="69"/>
-      <c r="B345" s="72" t="s">
+      <c r="A345" s="68"/>
+      <c r="B345" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C345" s="73"/>
+      <c r="C345" s="65"/>
       <c r="D345" s="44">
         <v>299979.66666666669</v>
       </c>
       <c r="E345" s="34"/>
     </row>
     <row r="346" spans="1:5">
-      <c r="A346" s="69"/>
-      <c r="B346" s="72" t="s">
+      <c r="A346" s="68"/>
+      <c r="B346" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C346" s="73"/>
+      <c r="C346" s="65"/>
       <c r="D346" s="44">
         <v>172591.66666666669</v>
       </c>
       <c r="E346" s="34"/>
     </row>
     <row r="347" spans="1:5">
-      <c r="A347" s="69"/>
-      <c r="B347" s="72" t="s">
+      <c r="A347" s="68"/>
+      <c r="B347" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C347" s="73"/>
+      <c r="C347" s="65"/>
       <c r="D347" s="44">
         <v>117643.91666666669</v>
       </c>
       <c r="E347" s="34"/>
     </row>
     <row r="348" spans="1:5">
-      <c r="A348" s="69"/>
-      <c r="B348" s="72" t="s">
+      <c r="A348" s="68"/>
+      <c r="B348" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C348" s="73"/>
+      <c r="C348" s="65"/>
       <c r="D348" s="40">
         <v>-1.088541455402591</v>
       </c>
@@ -22064,11 +22063,11 @@
       </c>
     </row>
     <row r="349" spans="1:5">
-      <c r="A349" s="69"/>
-      <c r="B349" s="72" t="s">
+      <c r="A349" s="68"/>
+      <c r="B349" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C349" s="73"/>
+      <c r="C349" s="65"/>
       <c r="D349" s="36">
         <v>-0.22883420718648534</v>
       </c>
@@ -22077,13 +22076,13 @@
       </c>
     </row>
     <row r="350" spans="1:5">
-      <c r="A350" s="69" t="s">
+      <c r="A350" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B350" s="72" t="s">
+      <c r="B350" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C350" s="73"/>
+      <c r="C350" s="65"/>
       <c r="D350" s="43">
         <v>1720889.2476999999</v>
       </c>
@@ -22092,8 +22091,8 @@
       </c>
     </row>
     <row r="351" spans="1:5" ht="24">
-      <c r="A351" s="69"/>
-      <c r="B351" s="72" t="s">
+      <c r="A351" s="68"/>
+      <c r="B351" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C351" s="32" t="s">
@@ -22105,8 +22104,8 @@
       <c r="E351" s="34"/>
     </row>
     <row r="352" spans="1:5" ht="24">
-      <c r="A352" s="69"/>
-      <c r="B352" s="72"/>
+      <c r="A352" s="68"/>
+      <c r="B352" s="64"/>
       <c r="C352" s="32" t="s">
         <v>29</v>
       </c>
@@ -22116,99 +22115,99 @@
       <c r="E352" s="34"/>
     </row>
     <row r="353" spans="1:5">
-      <c r="A353" s="69"/>
-      <c r="B353" s="72" t="s">
+      <c r="A353" s="68"/>
+      <c r="B353" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C353" s="73"/>
+      <c r="C353" s="65"/>
       <c r="D353" s="43">
         <v>1496251.3623666666</v>
       </c>
       <c r="E353" s="34"/>
     </row>
     <row r="354" spans="1:5">
-      <c r="A354" s="69"/>
-      <c r="B354" s="72" t="s">
+      <c r="A354" s="68"/>
+      <c r="B354" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C354" s="73"/>
+      <c r="C354" s="65"/>
       <c r="D354" s="43">
         <v>1071696.4180000001</v>
       </c>
       <c r="E354" s="34"/>
     </row>
     <row r="355" spans="1:5">
-      <c r="A355" s="69"/>
-      <c r="B355" s="72" t="s">
+      <c r="A355" s="68"/>
+      <c r="B355" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C355" s="73"/>
+      <c r="C355" s="65"/>
       <c r="D355" s="40">
         <v>5400649928170.7705</v>
       </c>
       <c r="E355" s="34"/>
     </row>
     <row r="356" spans="1:5">
-      <c r="A356" s="69"/>
-      <c r="B356" s="72" t="s">
+      <c r="A356" s="68"/>
+      <c r="B356" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C356" s="73"/>
+      <c r="C356" s="65"/>
       <c r="D356" s="40">
         <v>2323929.8457937087</v>
       </c>
       <c r="E356" s="34"/>
     </row>
     <row r="357" spans="1:5">
-      <c r="A357" s="69"/>
-      <c r="B357" s="72" t="s">
+      <c r="A357" s="68"/>
+      <c r="B357" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C357" s="73"/>
+      <c r="C357" s="65"/>
       <c r="D357" s="44">
         <v>183230.5024</v>
       </c>
       <c r="E357" s="34"/>
     </row>
     <row r="358" spans="1:5">
-      <c r="A358" s="69"/>
-      <c r="B358" s="72" t="s">
+      <c r="A358" s="68"/>
+      <c r="B358" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C358" s="73"/>
+      <c r="C358" s="65"/>
       <c r="D358" s="44">
         <v>7302029.9289999995</v>
       </c>
       <c r="E358" s="34"/>
     </row>
     <row r="359" spans="1:5">
-      <c r="A359" s="69"/>
-      <c r="B359" s="72" t="s">
+      <c r="A359" s="68"/>
+      <c r="B359" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C359" s="73"/>
+      <c r="C359" s="65"/>
       <c r="D359" s="44">
         <v>7118799.4265999999</v>
       </c>
       <c r="E359" s="34"/>
     </row>
     <row r="360" spans="1:5">
-      <c r="A360" s="69"/>
-      <c r="B360" s="72" t="s">
+      <c r="A360" s="68"/>
+      <c r="B360" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C360" s="73"/>
+      <c r="C360" s="65"/>
       <c r="D360" s="44">
         <v>1312289.2910000002</v>
       </c>
       <c r="E360" s="34"/>
     </row>
     <row r="361" spans="1:5">
-      <c r="A361" s="69"/>
-      <c r="B361" s="72" t="s">
+      <c r="A361" s="68"/>
+      <c r="B361" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C361" s="73"/>
+      <c r="C361" s="65"/>
       <c r="D361" s="40">
         <v>2.5069398318127871</v>
       </c>
@@ -22217,11 +22216,11 @@
       </c>
     </row>
     <row r="362" spans="1:5">
-      <c r="A362" s="69"/>
-      <c r="B362" s="72" t="s">
+      <c r="A362" s="68"/>
+      <c r="B362" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C362" s="73"/>
+      <c r="C362" s="65"/>
       <c r="D362" s="40">
         <v>6.6447523901440144</v>
       </c>
@@ -22230,13 +22229,13 @@
       </c>
     </row>
     <row r="363" spans="1:5">
-      <c r="A363" s="69" t="s">
+      <c r="A363" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B363" s="72" t="s">
+      <c r="B363" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C363" s="73"/>
+      <c r="C363" s="65"/>
       <c r="D363" s="43">
         <v>18.125</v>
       </c>
@@ -22245,8 +22244,8 @@
       </c>
     </row>
     <row r="364" spans="1:5" ht="24">
-      <c r="A364" s="69"/>
-      <c r="B364" s="72" t="s">
+      <c r="A364" s="68"/>
+      <c r="B364" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C364" s="32" t="s">
@@ -22258,8 +22257,8 @@
       <c r="E364" s="34"/>
     </row>
     <row r="365" spans="1:5" ht="24">
-      <c r="A365" s="69"/>
-      <c r="B365" s="72"/>
+      <c r="A365" s="68"/>
+      <c r="B365" s="64"/>
       <c r="C365" s="32" t="s">
         <v>29</v>
       </c>
@@ -22269,99 +22268,99 @@
       <c r="E365" s="34"/>
     </row>
     <row r="366" spans="1:5">
-      <c r="A366" s="69"/>
-      <c r="B366" s="72" t="s">
+      <c r="A366" s="68"/>
+      <c r="B366" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C366" s="73"/>
+      <c r="C366" s="65"/>
       <c r="D366" s="43">
         <v>17.25</v>
       </c>
       <c r="E366" s="34"/>
     </row>
     <row r="367" spans="1:5">
-      <c r="A367" s="69"/>
-      <c r="B367" s="72" t="s">
+      <c r="A367" s="68"/>
+      <c r="B367" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C367" s="73"/>
+      <c r="C367" s="65"/>
       <c r="D367" s="43">
         <v>14</v>
       </c>
       <c r="E367" s="34"/>
     </row>
     <row r="368" spans="1:5">
-      <c r="A368" s="69"/>
-      <c r="B368" s="72" t="s">
+      <c r="A368" s="68"/>
+      <c r="B368" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C368" s="73"/>
+      <c r="C368" s="65"/>
       <c r="D368" s="40">
         <v>244.41071428571428</v>
       </c>
       <c r="E368" s="34"/>
     </row>
     <row r="369" spans="1:5">
-      <c r="A369" s="69"/>
-      <c r="B369" s="72" t="s">
+      <c r="A369" s="68"/>
+      <c r="B369" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C369" s="73"/>
+      <c r="C369" s="65"/>
       <c r="D369" s="40">
         <v>15.633640468096811</v>
       </c>
       <c r="E369" s="34"/>
     </row>
     <row r="370" spans="1:5">
-      <c r="A370" s="69"/>
-      <c r="B370" s="72" t="s">
+      <c r="A370" s="68"/>
+      <c r="B370" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C370" s="73"/>
+      <c r="C370" s="65"/>
       <c r="D370" s="44">
         <v>1</v>
       </c>
       <c r="E370" s="34"/>
     </row>
     <row r="371" spans="1:5">
-      <c r="A371" s="69"/>
-      <c r="B371" s="72" t="s">
+      <c r="A371" s="68"/>
+      <c r="B371" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C371" s="73"/>
+      <c r="C371" s="65"/>
       <c r="D371" s="44">
         <v>51</v>
       </c>
       <c r="E371" s="34"/>
     </row>
     <row r="372" spans="1:5">
-      <c r="A372" s="69"/>
-      <c r="B372" s="72" t="s">
+      <c r="A372" s="68"/>
+      <c r="B372" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C372" s="73"/>
+      <c r="C372" s="65"/>
       <c r="D372" s="44">
         <v>50</v>
       </c>
       <c r="E372" s="34"/>
     </row>
     <row r="373" spans="1:5">
-      <c r="A373" s="69"/>
-      <c r="B373" s="72" t="s">
+      <c r="A373" s="68"/>
+      <c r="B373" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C373" s="73"/>
+      <c r="C373" s="65"/>
       <c r="D373" s="44">
         <v>17.75</v>
       </c>
       <c r="E373" s="34"/>
     </row>
     <row r="374" spans="1:5">
-      <c r="A374" s="69"/>
-      <c r="B374" s="72" t="s">
+      <c r="A374" s="68"/>
+      <c r="B374" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C374" s="73"/>
+      <c r="C374" s="65"/>
       <c r="D374" s="40">
         <v>1.4195829252788783</v>
       </c>
@@ -22370,11 +22369,11 @@
       </c>
     </row>
     <row r="375" spans="1:5">
-      <c r="A375" s="69"/>
-      <c r="B375" s="72" t="s">
+      <c r="A375" s="68"/>
+      <c r="B375" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C375" s="73"/>
+      <c r="C375" s="65"/>
       <c r="D375" s="40">
         <v>2.4745684088933171</v>
       </c>
@@ -22383,13 +22382,13 @@
       </c>
     </row>
     <row r="376" spans="1:5">
-      <c r="A376" s="69" t="s">
+      <c r="A376" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B376" s="72" t="s">
+      <c r="B376" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C376" s="73"/>
+      <c r="C376" s="65"/>
       <c r="D376" s="43">
         <v>44</v>
       </c>
@@ -22398,8 +22397,8 @@
       </c>
     </row>
     <row r="377" spans="1:5" ht="24">
-      <c r="A377" s="69"/>
-      <c r="B377" s="72" t="s">
+      <c r="A377" s="68"/>
+      <c r="B377" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C377" s="32" t="s">
@@ -22411,8 +22410,8 @@
       <c r="E377" s="34"/>
     </row>
     <row r="378" spans="1:5" ht="24">
-      <c r="A378" s="69"/>
-      <c r="B378" s="72"/>
+      <c r="A378" s="68"/>
+      <c r="B378" s="64"/>
       <c r="C378" s="32" t="s">
         <v>29</v>
       </c>
@@ -22422,99 +22421,99 @@
       <c r="E378" s="34"/>
     </row>
     <row r="379" spans="1:5">
-      <c r="A379" s="69"/>
-      <c r="B379" s="72" t="s">
+      <c r="A379" s="68"/>
+      <c r="B379" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C379" s="73"/>
+      <c r="C379" s="65"/>
       <c r="D379" s="43">
         <v>43.555555555555557</v>
       </c>
       <c r="E379" s="34"/>
     </row>
     <row r="380" spans="1:5">
-      <c r="A380" s="69"/>
-      <c r="B380" s="72" t="s">
+      <c r="A380" s="68"/>
+      <c r="B380" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C380" s="73"/>
+      <c r="C380" s="65"/>
       <c r="D380" s="43">
         <v>43</v>
       </c>
       <c r="E380" s="34"/>
     </row>
     <row r="381" spans="1:5">
-      <c r="A381" s="69"/>
-      <c r="B381" s="72" t="s">
+      <c r="A381" s="68"/>
+      <c r="B381" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C381" s="73"/>
+      <c r="C381" s="65"/>
       <c r="D381" s="40">
         <v>898.85714285714289</v>
       </c>
       <c r="E381" s="34"/>
     </row>
     <row r="382" spans="1:5">
-      <c r="A382" s="69"/>
-      <c r="B382" s="72" t="s">
+      <c r="A382" s="68"/>
+      <c r="B382" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C382" s="73"/>
+      <c r="C382" s="65"/>
       <c r="D382" s="40">
         <v>29.980946330246862</v>
       </c>
       <c r="E382" s="34"/>
     </row>
     <row r="383" spans="1:5">
-      <c r="A383" s="69"/>
-      <c r="B383" s="72" t="s">
+      <c r="A383" s="68"/>
+      <c r="B383" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C383" s="73"/>
+      <c r="C383" s="65"/>
       <c r="D383" s="44">
         <v>0</v>
       </c>
       <c r="E383" s="34"/>
     </row>
     <row r="384" spans="1:5">
-      <c r="A384" s="69"/>
-      <c r="B384" s="72" t="s">
+      <c r="A384" s="68"/>
+      <c r="B384" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C384" s="73"/>
+      <c r="C384" s="65"/>
       <c r="D384" s="44">
         <v>96</v>
       </c>
       <c r="E384" s="34"/>
     </row>
     <row r="385" spans="1:5">
-      <c r="A385" s="69"/>
-      <c r="B385" s="72" t="s">
+      <c r="A385" s="68"/>
+      <c r="B385" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C385" s="73"/>
+      <c r="C385" s="65"/>
       <c r="D385" s="44">
         <v>96</v>
       </c>
       <c r="E385" s="34"/>
     </row>
     <row r="386" spans="1:5">
-      <c r="A386" s="69"/>
-      <c r="B386" s="72" t="s">
+      <c r="A386" s="68"/>
+      <c r="B386" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C386" s="73"/>
+      <c r="C386" s="65"/>
       <c r="D386" s="44">
         <v>44.5</v>
       </c>
       <c r="E386" s="34"/>
     </row>
     <row r="387" spans="1:5">
-      <c r="A387" s="69"/>
-      <c r="B387" s="72" t="s">
+      <c r="A387" s="68"/>
+      <c r="B387" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C387" s="73"/>
+      <c r="C387" s="65"/>
       <c r="D387" s="36">
         <v>0.43036445507356058</v>
       </c>
@@ -22523,11 +22522,11 @@
       </c>
     </row>
     <row r="388" spans="1:5">
-      <c r="A388" s="69"/>
-      <c r="B388" s="72" t="s">
+      <c r="A388" s="68"/>
+      <c r="B388" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C388" s="73"/>
+      <c r="C388" s="65"/>
       <c r="D388" s="36">
         <v>0.29358719070907707</v>
       </c>
@@ -22536,13 +22535,13 @@
       </c>
     </row>
     <row r="389" spans="1:5">
-      <c r="A389" s="69" t="s">
+      <c r="A389" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B389" s="72" t="s">
+      <c r="B389" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C389" s="73"/>
+      <c r="C389" s="65"/>
       <c r="D389" s="43">
         <v>1.875</v>
       </c>
@@ -22551,8 +22550,8 @@
       </c>
     </row>
     <row r="390" spans="1:5" ht="24">
-      <c r="A390" s="69"/>
-      <c r="B390" s="72" t="s">
+      <c r="A390" s="68"/>
+      <c r="B390" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C390" s="32" t="s">
@@ -22564,8 +22563,8 @@
       <c r="E390" s="34"/>
     </row>
     <row r="391" spans="1:5" ht="24">
-      <c r="A391" s="69"/>
-      <c r="B391" s="72"/>
+      <c r="A391" s="68"/>
+      <c r="B391" s="64"/>
       <c r="C391" s="32" t="s">
         <v>29</v>
       </c>
@@ -22575,99 +22574,99 @@
       <c r="E391" s="34"/>
     </row>
     <row r="392" spans="1:5">
-      <c r="A392" s="69"/>
-      <c r="B392" s="72" t="s">
+      <c r="A392" s="68"/>
+      <c r="B392" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C392" s="73"/>
+      <c r="C392" s="65"/>
       <c r="D392" s="43">
         <v>1.8055555555555556</v>
       </c>
       <c r="E392" s="34"/>
     </row>
     <row r="393" spans="1:5">
-      <c r="A393" s="69"/>
-      <c r="B393" s="72" t="s">
+      <c r="A393" s="68"/>
+      <c r="B393" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C393" s="73"/>
+      <c r="C393" s="65"/>
       <c r="D393" s="43">
         <v>2</v>
       </c>
       <c r="E393" s="34"/>
     </row>
     <row r="394" spans="1:5">
-      <c r="A394" s="69"/>
-      <c r="B394" s="72" t="s">
+      <c r="A394" s="68"/>
+      <c r="B394" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C394" s="73"/>
+      <c r="C394" s="65"/>
       <c r="D394" s="36">
         <v>0.9821428571428571</v>
       </c>
       <c r="E394" s="34"/>
     </row>
     <row r="395" spans="1:5">
-      <c r="A395" s="69"/>
-      <c r="B395" s="72" t="s">
+      <c r="A395" s="68"/>
+      <c r="B395" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C395" s="73"/>
+      <c r="C395" s="65"/>
       <c r="D395" s="36">
         <v>0.99103120896511487</v>
       </c>
       <c r="E395" s="34"/>
     </row>
     <row r="396" spans="1:5">
-      <c r="A396" s="69"/>
-      <c r="B396" s="72" t="s">
+      <c r="A396" s="68"/>
+      <c r="B396" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C396" s="73"/>
+      <c r="C396" s="65"/>
       <c r="D396" s="44">
         <v>1</v>
       </c>
       <c r="E396" s="34"/>
     </row>
     <row r="397" spans="1:5">
-      <c r="A397" s="69"/>
-      <c r="B397" s="72" t="s">
+      <c r="A397" s="68"/>
+      <c r="B397" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C397" s="73"/>
+      <c r="C397" s="65"/>
       <c r="D397" s="44">
         <v>4</v>
       </c>
       <c r="E397" s="34"/>
     </row>
     <row r="398" spans="1:5">
-      <c r="A398" s="69"/>
-      <c r="B398" s="72" t="s">
+      <c r="A398" s="68"/>
+      <c r="B398" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C398" s="73"/>
+      <c r="C398" s="65"/>
       <c r="D398" s="44">
         <v>3</v>
       </c>
       <c r="E398" s="34"/>
     </row>
     <row r="399" spans="1:5">
-      <c r="A399" s="69"/>
-      <c r="B399" s="72" t="s">
+      <c r="A399" s="68"/>
+      <c r="B399" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C399" s="73"/>
+      <c r="C399" s="65"/>
       <c r="D399" s="44">
         <v>1</v>
       </c>
       <c r="E399" s="34"/>
     </row>
     <row r="400" spans="1:5">
-      <c r="A400" s="69"/>
-      <c r="B400" s="72" t="s">
+      <c r="A400" s="68"/>
+      <c r="B400" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C400" s="73"/>
+      <c r="C400" s="65"/>
       <c r="D400" s="40">
         <v>1.4860553930134748</v>
       </c>
@@ -22676,11 +22675,11 @@
       </c>
     </row>
     <row r="401" spans="1:5">
-      <c r="A401" s="69"/>
-      <c r="B401" s="72" t="s">
+      <c r="A401" s="68"/>
+      <c r="B401" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C401" s="73"/>
+      <c r="C401" s="65"/>
       <c r="D401" s="40">
         <v>2.9730909090909092</v>
       </c>
@@ -22689,13 +22688,13 @@
       </c>
     </row>
     <row r="402" spans="1:5">
-      <c r="A402" s="69" t="s">
+      <c r="A402" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B402" s="72" t="s">
+      <c r="B402" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C402" s="73"/>
+      <c r="C402" s="65"/>
       <c r="D402" s="39">
         <v>1.546875</v>
       </c>
@@ -22704,8 +22703,8 @@
       </c>
     </row>
     <row r="403" spans="1:5" ht="24">
-      <c r="A403" s="69"/>
-      <c r="B403" s="72" t="s">
+      <c r="A403" s="68"/>
+      <c r="B403" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C403" s="32" t="s">
@@ -22717,8 +22716,8 @@
       <c r="E403" s="34"/>
     </row>
     <row r="404" spans="1:5" ht="24">
-      <c r="A404" s="69"/>
-      <c r="B404" s="72"/>
+      <c r="A404" s="68"/>
+      <c r="B404" s="64"/>
       <c r="C404" s="32" t="s">
         <v>29</v>
       </c>
@@ -22728,99 +22727,99 @@
       <c r="E404" s="34"/>
     </row>
     <row r="405" spans="1:5">
-      <c r="A405" s="69"/>
-      <c r="B405" s="72" t="s">
+      <c r="A405" s="68"/>
+      <c r="B405" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C405" s="73"/>
+      <c r="C405" s="65"/>
       <c r="D405" s="39">
         <v>1.5520833333333333</v>
       </c>
       <c r="E405" s="34"/>
     </row>
     <row r="406" spans="1:5">
-      <c r="A406" s="69"/>
-      <c r="B406" s="72" t="s">
+      <c r="A406" s="68"/>
+      <c r="B406" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C406" s="73"/>
+      <c r="C406" s="65"/>
       <c r="D406" s="39">
         <v>1.5625</v>
       </c>
       <c r="E406" s="34"/>
     </row>
     <row r="407" spans="1:5">
-      <c r="A407" s="69"/>
-      <c r="B407" s="72" t="s">
+      <c r="A407" s="68"/>
+      <c r="B407" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C407" s="73"/>
+      <c r="C407" s="65"/>
       <c r="D407" s="36">
         <v>6.6685267857142863E-2</v>
       </c>
       <c r="E407" s="34"/>
     </row>
     <row r="408" spans="1:5">
-      <c r="A408" s="69"/>
-      <c r="B408" s="72" t="s">
+      <c r="A408" s="68"/>
+      <c r="B408" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C408" s="73"/>
+      <c r="C408" s="65"/>
       <c r="D408" s="48">
         <v>0.25823490828534945</v>
       </c>
       <c r="E408" s="34"/>
     </row>
     <row r="409" spans="1:5">
-      <c r="A409" s="69"/>
-      <c r="B409" s="72" t="s">
+      <c r="A409" s="68"/>
+      <c r="B409" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C409" s="73"/>
+      <c r="C409" s="65"/>
       <c r="D409" s="43">
         <v>1.125</v>
       </c>
       <c r="E409" s="34"/>
     </row>
     <row r="410" spans="1:5">
-      <c r="A410" s="69"/>
-      <c r="B410" s="72" t="s">
+      <c r="A410" s="68"/>
+      <c r="B410" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C410" s="73"/>
+      <c r="C410" s="65"/>
       <c r="D410" s="43">
         <v>1.875</v>
       </c>
       <c r="E410" s="34"/>
     </row>
     <row r="411" spans="1:5">
-      <c r="A411" s="69"/>
-      <c r="B411" s="72" t="s">
+      <c r="A411" s="68"/>
+      <c r="B411" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C411" s="73"/>
+      <c r="C411" s="65"/>
       <c r="D411" s="45">
         <v>0.75</v>
       </c>
       <c r="E411" s="34"/>
     </row>
     <row r="412" spans="1:5">
-      <c r="A412" s="69"/>
-      <c r="B412" s="72" t="s">
+      <c r="A412" s="68"/>
+      <c r="B412" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C412" s="73"/>
+      <c r="C412" s="65"/>
       <c r="D412" s="45">
         <v>0.4375</v>
       </c>
       <c r="E412" s="34"/>
     </row>
     <row r="413" spans="1:5">
-      <c r="A413" s="69"/>
-      <c r="B413" s="72" t="s">
+      <c r="A413" s="68"/>
+      <c r="B413" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C413" s="73"/>
+      <c r="C413" s="65"/>
       <c r="D413" s="36">
         <v>-0.54076481135590004</v>
       </c>
@@ -22829,11 +22828,11 @@
       </c>
     </row>
     <row r="414" spans="1:5">
-      <c r="A414" s="69"/>
-      <c r="B414" s="72" t="s">
+      <c r="A414" s="68"/>
+      <c r="B414" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C414" s="73"/>
+      <c r="C414" s="65"/>
       <c r="D414" s="36">
         <v>-0.69900737031914706</v>
       </c>
@@ -22842,13 +22841,13 @@
       </c>
     </row>
     <row r="415" spans="1:5">
-      <c r="A415" s="69" t="s">
+      <c r="A415" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="B415" s="72" t="s">
+      <c r="B415" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C415" s="73"/>
+      <c r="C415" s="65"/>
       <c r="D415" s="39">
         <v>2.9166666666666665</v>
       </c>
@@ -22857,8 +22856,8 @@
       </c>
     </row>
     <row r="416" spans="1:5" ht="24">
-      <c r="A416" s="69"/>
-      <c r="B416" s="72" t="s">
+      <c r="A416" s="68"/>
+      <c r="B416" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C416" s="32" t="s">
@@ -22870,8 +22869,8 @@
       <c r="E416" s="34"/>
     </row>
     <row r="417" spans="1:5" ht="24">
-      <c r="A417" s="69"/>
-      <c r="B417" s="72"/>
+      <c r="A417" s="68"/>
+      <c r="B417" s="64"/>
       <c r="C417" s="32" t="s">
         <v>29</v>
       </c>
@@ -22881,99 +22880,99 @@
       <c r="E417" s="34"/>
     </row>
     <row r="418" spans="1:5">
-      <c r="A418" s="69"/>
-      <c r="B418" s="72" t="s">
+      <c r="A418" s="68"/>
+      <c r="B418" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C418" s="73"/>
+      <c r="C418" s="65"/>
       <c r="D418" s="39">
         <v>2.8703703703703702</v>
       </c>
       <c r="E418" s="34"/>
     </row>
     <row r="419" spans="1:5">
-      <c r="A419" s="69"/>
-      <c r="B419" s="72" t="s">
+      <c r="A419" s="68"/>
+      <c r="B419" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C419" s="73"/>
+      <c r="C419" s="65"/>
       <c r="D419" s="39">
         <v>2.5</v>
       </c>
       <c r="E419" s="34"/>
     </row>
     <row r="420" spans="1:5">
-      <c r="A420" s="69"/>
-      <c r="B420" s="72" t="s">
+      <c r="A420" s="68"/>
+      <c r="B420" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C420" s="73"/>
+      <c r="C420" s="65"/>
       <c r="D420" s="40">
         <v>3.166666666666667</v>
       </c>
       <c r="E420" s="34"/>
     </row>
     <row r="421" spans="1:5">
-      <c r="A421" s="69"/>
-      <c r="B421" s="72" t="s">
+      <c r="A421" s="68"/>
+      <c r="B421" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C421" s="73"/>
+      <c r="C421" s="65"/>
       <c r="D421" s="50">
         <v>1.7795130420052185</v>
       </c>
       <c r="E421" s="34"/>
     </row>
     <row r="422" spans="1:5">
-      <c r="A422" s="69"/>
-      <c r="B422" s="72" t="s">
+      <c r="A422" s="68"/>
+      <c r="B422" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C422" s="73"/>
+      <c r="C422" s="65"/>
       <c r="D422" s="43">
         <v>1</v>
       </c>
       <c r="E422" s="34"/>
     </row>
     <row r="423" spans="1:5">
-      <c r="A423" s="69"/>
-      <c r="B423" s="72" t="s">
+      <c r="A423" s="68"/>
+      <c r="B423" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C423" s="73"/>
+      <c r="C423" s="65"/>
       <c r="D423" s="43">
         <v>5.666666666666667</v>
       </c>
       <c r="E423" s="34"/>
     </row>
     <row r="424" spans="1:5">
-      <c r="A424" s="69"/>
-      <c r="B424" s="72" t="s">
+      <c r="A424" s="68"/>
+      <c r="B424" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C424" s="73"/>
+      <c r="C424" s="65"/>
       <c r="D424" s="43">
         <v>4.666666666666667</v>
       </c>
       <c r="E424" s="34"/>
     </row>
     <row r="425" spans="1:5">
-      <c r="A425" s="69"/>
-      <c r="B425" s="72" t="s">
+      <c r="A425" s="68"/>
+      <c r="B425" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C425" s="73"/>
+      <c r="C425" s="65"/>
       <c r="D425" s="43">
         <v>3.4166666666666665</v>
       </c>
       <c r="E425" s="34"/>
     </row>
     <row r="426" spans="1:5">
-      <c r="A426" s="69"/>
-      <c r="B426" s="72" t="s">
+      <c r="A426" s="68"/>
+      <c r="B426" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C426" s="73"/>
+      <c r="C426" s="65"/>
       <c r="D426" s="36">
         <v>0.71828385549874318</v>
       </c>
@@ -22982,11 +22981,11 @@
       </c>
     </row>
     <row r="427" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A427" s="76"/>
-      <c r="B427" s="74" t="s">
+      <c r="A427" s="69"/>
+      <c r="B427" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="C427" s="75"/>
+      <c r="C427" s="67"/>
       <c r="D427" s="51">
         <v>-0.99343094578551605</v>
       </c>
@@ -22995,212 +22994,218 @@
       </c>
     </row>
     <row r="428" spans="1:5" ht="15.75" thickTop="1">
-      <c r="A428" s="72" t="s">
+      <c r="A428" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B428" s="72"/>
-      <c r="C428" s="72"/>
-      <c r="D428" s="72"/>
-      <c r="E428" s="72"/>
+      <c r="B428" s="64"/>
+      <c r="C428" s="64"/>
+      <c r="D428" s="64"/>
+      <c r="E428" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="422">
-    <mergeCell ref="B423:C423"/>
-    <mergeCell ref="B424:C424"/>
-    <mergeCell ref="B425:C425"/>
-    <mergeCell ref="B426:C426"/>
-    <mergeCell ref="B427:C427"/>
-    <mergeCell ref="A428:E428"/>
-    <mergeCell ref="B413:C413"/>
-    <mergeCell ref="B414:C414"/>
-    <mergeCell ref="A415:A427"/>
-    <mergeCell ref="B415:C415"/>
-    <mergeCell ref="B416:B417"/>
-    <mergeCell ref="B418:C418"/>
-    <mergeCell ref="B419:C419"/>
-    <mergeCell ref="B420:C420"/>
-    <mergeCell ref="B421:C421"/>
-    <mergeCell ref="B422:C422"/>
-    <mergeCell ref="A402:A414"/>
-    <mergeCell ref="B407:C407"/>
-    <mergeCell ref="B408:C408"/>
-    <mergeCell ref="B409:C409"/>
-    <mergeCell ref="B410:C410"/>
-    <mergeCell ref="B411:C411"/>
-    <mergeCell ref="B412:C412"/>
-    <mergeCell ref="B397:C397"/>
-    <mergeCell ref="B398:C398"/>
-    <mergeCell ref="B399:C399"/>
-    <mergeCell ref="B400:C400"/>
-    <mergeCell ref="B401:C401"/>
-    <mergeCell ref="B402:C402"/>
-    <mergeCell ref="B403:B404"/>
-    <mergeCell ref="B405:C405"/>
-    <mergeCell ref="B406:C406"/>
-    <mergeCell ref="B387:C387"/>
-    <mergeCell ref="B388:C388"/>
-    <mergeCell ref="A389:A401"/>
-    <mergeCell ref="B389:C389"/>
-    <mergeCell ref="B390:B391"/>
-    <mergeCell ref="B392:C392"/>
-    <mergeCell ref="B393:C393"/>
-    <mergeCell ref="B394:C394"/>
-    <mergeCell ref="B395:C395"/>
-    <mergeCell ref="B396:C396"/>
-    <mergeCell ref="A376:A388"/>
-    <mergeCell ref="B381:C381"/>
-    <mergeCell ref="B382:C382"/>
-    <mergeCell ref="B383:C383"/>
-    <mergeCell ref="B384:C384"/>
-    <mergeCell ref="B385:C385"/>
-    <mergeCell ref="B386:C386"/>
-    <mergeCell ref="B371:C371"/>
-    <mergeCell ref="B372:C372"/>
-    <mergeCell ref="B373:C373"/>
-    <mergeCell ref="B374:C374"/>
-    <mergeCell ref="B375:C375"/>
-    <mergeCell ref="B376:C376"/>
-    <mergeCell ref="B377:B378"/>
-    <mergeCell ref="B379:C379"/>
-    <mergeCell ref="B380:C380"/>
-    <mergeCell ref="B361:C361"/>
-    <mergeCell ref="B362:C362"/>
-    <mergeCell ref="A363:A375"/>
-    <mergeCell ref="B363:C363"/>
-    <mergeCell ref="B364:B365"/>
-    <mergeCell ref="B366:C366"/>
-    <mergeCell ref="B367:C367"/>
-    <mergeCell ref="B368:C368"/>
-    <mergeCell ref="B369:C369"/>
-    <mergeCell ref="B370:C370"/>
-    <mergeCell ref="A350:A362"/>
-    <mergeCell ref="B355:C355"/>
-    <mergeCell ref="B356:C356"/>
-    <mergeCell ref="B357:C357"/>
-    <mergeCell ref="B358:C358"/>
-    <mergeCell ref="B359:C359"/>
-    <mergeCell ref="B360:C360"/>
-    <mergeCell ref="B345:C345"/>
-    <mergeCell ref="B346:C346"/>
-    <mergeCell ref="B347:C347"/>
-    <mergeCell ref="B348:C348"/>
-    <mergeCell ref="B349:C349"/>
-    <mergeCell ref="B350:C350"/>
-    <mergeCell ref="B351:B352"/>
-    <mergeCell ref="B353:C353"/>
-    <mergeCell ref="B354:C354"/>
-    <mergeCell ref="B335:C335"/>
-    <mergeCell ref="B336:C336"/>
-    <mergeCell ref="A337:A349"/>
-    <mergeCell ref="B337:C337"/>
-    <mergeCell ref="B338:B339"/>
-    <mergeCell ref="B340:C340"/>
-    <mergeCell ref="B341:C341"/>
-    <mergeCell ref="B342:C342"/>
-    <mergeCell ref="B343:C343"/>
-    <mergeCell ref="B344:C344"/>
-    <mergeCell ref="A324:A336"/>
-    <mergeCell ref="B329:C329"/>
-    <mergeCell ref="B330:C330"/>
-    <mergeCell ref="B331:C331"/>
-    <mergeCell ref="B332:C332"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="B334:C334"/>
-    <mergeCell ref="B319:C319"/>
-    <mergeCell ref="B320:C320"/>
-    <mergeCell ref="B321:C321"/>
-    <mergeCell ref="B322:C322"/>
-    <mergeCell ref="B323:C323"/>
-    <mergeCell ref="B324:C324"/>
-    <mergeCell ref="B325:B326"/>
-    <mergeCell ref="B327:C327"/>
-    <mergeCell ref="B328:C328"/>
-    <mergeCell ref="B309:C309"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="A311:A323"/>
-    <mergeCell ref="B311:C311"/>
-    <mergeCell ref="B312:B313"/>
-    <mergeCell ref="B314:C314"/>
-    <mergeCell ref="B315:C315"/>
-    <mergeCell ref="B316:C316"/>
-    <mergeCell ref="B317:C317"/>
-    <mergeCell ref="B318:C318"/>
-    <mergeCell ref="A298:A310"/>
-    <mergeCell ref="B303:C303"/>
-    <mergeCell ref="B304:C304"/>
-    <mergeCell ref="B305:C305"/>
-    <mergeCell ref="B306:C306"/>
-    <mergeCell ref="B307:C307"/>
-    <mergeCell ref="B308:C308"/>
-    <mergeCell ref="B293:C293"/>
-    <mergeCell ref="B294:C294"/>
-    <mergeCell ref="B295:C295"/>
-    <mergeCell ref="B296:C296"/>
-    <mergeCell ref="B297:C297"/>
-    <mergeCell ref="B298:C298"/>
-    <mergeCell ref="B299:B300"/>
-    <mergeCell ref="B301:C301"/>
-    <mergeCell ref="B302:C302"/>
-    <mergeCell ref="B283:C283"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="A285:A297"/>
-    <mergeCell ref="B285:C285"/>
-    <mergeCell ref="B286:B287"/>
-    <mergeCell ref="B288:C288"/>
-    <mergeCell ref="B289:C289"/>
-    <mergeCell ref="B290:C290"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="B292:C292"/>
-    <mergeCell ref="A272:A284"/>
-    <mergeCell ref="B277:C277"/>
-    <mergeCell ref="B278:C278"/>
-    <mergeCell ref="B279:C279"/>
-    <mergeCell ref="B280:C280"/>
-    <mergeCell ref="B281:C281"/>
-    <mergeCell ref="B282:C282"/>
-    <mergeCell ref="B267:C267"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="B273:B274"/>
-    <mergeCell ref="B275:C275"/>
-    <mergeCell ref="B276:C276"/>
-    <mergeCell ref="B257:C257"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="A259:A271"/>
-    <mergeCell ref="B259:C259"/>
-    <mergeCell ref="B260:B261"/>
-    <mergeCell ref="B262:C262"/>
-    <mergeCell ref="B263:C263"/>
-    <mergeCell ref="B264:C264"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="B266:C266"/>
-    <mergeCell ref="A246:A258"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="B254:C254"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="B256:C256"/>
-    <mergeCell ref="B241:C241"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="B243:C243"/>
-    <mergeCell ref="B244:C244"/>
-    <mergeCell ref="B245:C245"/>
-    <mergeCell ref="B246:C246"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="B250:C250"/>
-    <mergeCell ref="A233:A245"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="B234:B235"/>
-    <mergeCell ref="B236:C236"/>
-    <mergeCell ref="B237:C237"/>
-    <mergeCell ref="B238:C238"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:A20"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A34:A46"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A21:A33"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A60:A72"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="A47:A59"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="A86:A98"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="A73:A85"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="A112:A124"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="A99:A111"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="A138:A150"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="A125:A137"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="A164:A176"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="A151:A163"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="A190:A202"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="A177:A189"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="B207:C207"/>
     <mergeCell ref="B225:C225"/>
     <mergeCell ref="B226:C226"/>
     <mergeCell ref="B227:C227"/>
@@ -23225,208 +23230,202 @@
     <mergeCell ref="B210:C210"/>
     <mergeCell ref="B211:C211"/>
     <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="B204:B205"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="A190:A202"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="A177:A189"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="A164:A176"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="A151:A163"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="A138:A150"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="A125:A137"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="A112:A124"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="A99:A111"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="A86:A98"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="A73:A85"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A60:A72"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="A47:A59"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A34:A46"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A21:A33"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:A20"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A233:A245"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="B234:B235"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="B237:C237"/>
+    <mergeCell ref="B238:C238"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="B241:C241"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="B243:C243"/>
+    <mergeCell ref="B244:C244"/>
+    <mergeCell ref="B245:C245"/>
+    <mergeCell ref="B246:C246"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="B250:C250"/>
+    <mergeCell ref="B257:C257"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="A259:A271"/>
+    <mergeCell ref="B259:C259"/>
+    <mergeCell ref="B260:B261"/>
+    <mergeCell ref="B262:C262"/>
+    <mergeCell ref="B263:C263"/>
+    <mergeCell ref="B264:C264"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="B266:C266"/>
+    <mergeCell ref="A246:A258"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="B254:C254"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="B256:C256"/>
+    <mergeCell ref="B267:C267"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="B273:B274"/>
+    <mergeCell ref="B275:C275"/>
+    <mergeCell ref="B276:C276"/>
+    <mergeCell ref="B283:C283"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="A285:A297"/>
+    <mergeCell ref="B285:C285"/>
+    <mergeCell ref="B286:B287"/>
+    <mergeCell ref="B288:C288"/>
+    <mergeCell ref="B289:C289"/>
+    <mergeCell ref="B290:C290"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="A272:A284"/>
+    <mergeCell ref="B277:C277"/>
+    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="B279:C279"/>
+    <mergeCell ref="B280:C280"/>
+    <mergeCell ref="B281:C281"/>
+    <mergeCell ref="B282:C282"/>
+    <mergeCell ref="B293:C293"/>
+    <mergeCell ref="B294:C294"/>
+    <mergeCell ref="B295:C295"/>
+    <mergeCell ref="B296:C296"/>
+    <mergeCell ref="B297:C297"/>
+    <mergeCell ref="B298:C298"/>
+    <mergeCell ref="B299:B300"/>
+    <mergeCell ref="B301:C301"/>
+    <mergeCell ref="B302:C302"/>
+    <mergeCell ref="B309:C309"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="A311:A323"/>
+    <mergeCell ref="B311:C311"/>
+    <mergeCell ref="B312:B313"/>
+    <mergeCell ref="B314:C314"/>
+    <mergeCell ref="B315:C315"/>
+    <mergeCell ref="B316:C316"/>
+    <mergeCell ref="B317:C317"/>
+    <mergeCell ref="B318:C318"/>
+    <mergeCell ref="A298:A310"/>
+    <mergeCell ref="B303:C303"/>
+    <mergeCell ref="B304:C304"/>
+    <mergeCell ref="B305:C305"/>
+    <mergeCell ref="B306:C306"/>
+    <mergeCell ref="B307:C307"/>
+    <mergeCell ref="B308:C308"/>
+    <mergeCell ref="B319:C319"/>
+    <mergeCell ref="B320:C320"/>
+    <mergeCell ref="B321:C321"/>
+    <mergeCell ref="B322:C322"/>
+    <mergeCell ref="B323:C323"/>
+    <mergeCell ref="B324:C324"/>
+    <mergeCell ref="B325:B326"/>
+    <mergeCell ref="B327:C327"/>
+    <mergeCell ref="B328:C328"/>
+    <mergeCell ref="B335:C335"/>
+    <mergeCell ref="B336:C336"/>
+    <mergeCell ref="A337:A349"/>
+    <mergeCell ref="B337:C337"/>
+    <mergeCell ref="B338:B339"/>
+    <mergeCell ref="B340:C340"/>
+    <mergeCell ref="B341:C341"/>
+    <mergeCell ref="B342:C342"/>
+    <mergeCell ref="B343:C343"/>
+    <mergeCell ref="B344:C344"/>
+    <mergeCell ref="A324:A336"/>
+    <mergeCell ref="B329:C329"/>
+    <mergeCell ref="B330:C330"/>
+    <mergeCell ref="B331:C331"/>
+    <mergeCell ref="B332:C332"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="B334:C334"/>
+    <mergeCell ref="B345:C345"/>
+    <mergeCell ref="B346:C346"/>
+    <mergeCell ref="B347:C347"/>
+    <mergeCell ref="B348:C348"/>
+    <mergeCell ref="B349:C349"/>
+    <mergeCell ref="B350:C350"/>
+    <mergeCell ref="B351:B352"/>
+    <mergeCell ref="B353:C353"/>
+    <mergeCell ref="B354:C354"/>
+    <mergeCell ref="B361:C361"/>
+    <mergeCell ref="B362:C362"/>
+    <mergeCell ref="A363:A375"/>
+    <mergeCell ref="B363:C363"/>
+    <mergeCell ref="B364:B365"/>
+    <mergeCell ref="B366:C366"/>
+    <mergeCell ref="B367:C367"/>
+    <mergeCell ref="B368:C368"/>
+    <mergeCell ref="B369:C369"/>
+    <mergeCell ref="B370:C370"/>
+    <mergeCell ref="A350:A362"/>
+    <mergeCell ref="B355:C355"/>
+    <mergeCell ref="B356:C356"/>
+    <mergeCell ref="B357:C357"/>
+    <mergeCell ref="B358:C358"/>
+    <mergeCell ref="B359:C359"/>
+    <mergeCell ref="B360:C360"/>
+    <mergeCell ref="B371:C371"/>
+    <mergeCell ref="B372:C372"/>
+    <mergeCell ref="B373:C373"/>
+    <mergeCell ref="B374:C374"/>
+    <mergeCell ref="B375:C375"/>
+    <mergeCell ref="B376:C376"/>
+    <mergeCell ref="B377:B378"/>
+    <mergeCell ref="B379:C379"/>
+    <mergeCell ref="B380:C380"/>
+    <mergeCell ref="B387:C387"/>
+    <mergeCell ref="B388:C388"/>
+    <mergeCell ref="A389:A401"/>
+    <mergeCell ref="B389:C389"/>
+    <mergeCell ref="B390:B391"/>
+    <mergeCell ref="B392:C392"/>
+    <mergeCell ref="B393:C393"/>
+    <mergeCell ref="B394:C394"/>
+    <mergeCell ref="B395:C395"/>
+    <mergeCell ref="B396:C396"/>
+    <mergeCell ref="A376:A388"/>
+    <mergeCell ref="B381:C381"/>
+    <mergeCell ref="B382:C382"/>
+    <mergeCell ref="B383:C383"/>
+    <mergeCell ref="B384:C384"/>
+    <mergeCell ref="B385:C385"/>
+    <mergeCell ref="B386:C386"/>
+    <mergeCell ref="B397:C397"/>
+    <mergeCell ref="B398:C398"/>
+    <mergeCell ref="B399:C399"/>
+    <mergeCell ref="B400:C400"/>
+    <mergeCell ref="B401:C401"/>
+    <mergeCell ref="B402:C402"/>
+    <mergeCell ref="B403:B404"/>
+    <mergeCell ref="B405:C405"/>
+    <mergeCell ref="B406:C406"/>
+    <mergeCell ref="B423:C423"/>
+    <mergeCell ref="B424:C424"/>
+    <mergeCell ref="B425:C425"/>
+    <mergeCell ref="B426:C426"/>
+    <mergeCell ref="B427:C427"/>
+    <mergeCell ref="A428:E428"/>
+    <mergeCell ref="B413:C413"/>
+    <mergeCell ref="B414:C414"/>
+    <mergeCell ref="A415:A427"/>
+    <mergeCell ref="B415:C415"/>
+    <mergeCell ref="B416:B417"/>
+    <mergeCell ref="B418:C418"/>
+    <mergeCell ref="B419:C419"/>
+    <mergeCell ref="B420:C420"/>
+    <mergeCell ref="B421:C421"/>
+    <mergeCell ref="B422:C422"/>
+    <mergeCell ref="A402:A414"/>
+    <mergeCell ref="B407:C407"/>
+    <mergeCell ref="B408:C408"/>
+    <mergeCell ref="B409:C409"/>
+    <mergeCell ref="B410:C410"/>
+    <mergeCell ref="B411:C411"/>
+    <mergeCell ref="B412:C412"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -23437,8 +23436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M64" sqref="M64"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
